--- a/Тест-кейси Петренко О.xlsx
+++ b/Тест-кейси Петренко О.xlsx
@@ -997,175 +997,175 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="18" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="25" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="18" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="25" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1476,8 +1476,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:G66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="E48" sqref="E48"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="F52" sqref="F52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1491,11 +1491,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D1" s="83" t="s">
+      <c r="D1" s="44" t="s">
         <v>68</v>
       </c>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
     </row>
     <row r="2" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
@@ -1518,13 +1518,13 @@
       </c>
     </row>
     <row r="3" spans="2:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="63">
+      <c r="B3" s="45">
         <v>1</v>
       </c>
-      <c r="C3" s="66" t="s">
+      <c r="C3" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="48" t="s">
+      <c r="D3" s="51" t="s">
         <v>6</v>
       </c>
       <c r="E3" s="5" t="s">
@@ -1533,505 +1533,505 @@
       <c r="F3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="69" t="s">
+      <c r="G3" s="54" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="4" spans="2:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="64"/>
-      <c r="C4" s="67"/>
-      <c r="D4" s="49"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="52"/>
       <c r="E4" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F4" s="8"/>
-      <c r="G4" s="70"/>
+      <c r="G4" s="55"/>
     </row>
     <row r="5" spans="2:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="64"/>
-      <c r="C5" s="67"/>
-      <c r="D5" s="49"/>
+      <c r="B5" s="46"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="52"/>
       <c r="E5" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F5" s="8"/>
-      <c r="G5" s="70"/>
+      <c r="G5" s="55"/>
     </row>
     <row r="6" spans="2:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="64"/>
-      <c r="C6" s="67"/>
-      <c r="D6" s="49"/>
+      <c r="B6" s="46"/>
+      <c r="C6" s="49"/>
+      <c r="D6" s="52"/>
       <c r="E6" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F6" s="8"/>
-      <c r="G6" s="70"/>
+      <c r="G6" s="55"/>
     </row>
     <row r="7" spans="2:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="64"/>
-      <c r="C7" s="67"/>
-      <c r="D7" s="49"/>
+      <c r="B7" s="46"/>
+      <c r="C7" s="49"/>
+      <c r="D7" s="52"/>
       <c r="E7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="F7" s="8"/>
-      <c r="G7" s="70"/>
+      <c r="G7" s="55"/>
     </row>
     <row r="8" spans="2:7" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="65"/>
-      <c r="C8" s="68"/>
-      <c r="D8" s="50"/>
+      <c r="B8" s="47"/>
+      <c r="C8" s="50"/>
+      <c r="D8" s="53"/>
       <c r="E8" s="9" t="s">
         <v>13</v>
       </c>
       <c r="F8" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="71"/>
+      <c r="G8" s="56"/>
     </row>
     <row r="9" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B9" s="80">
+      <c r="B9" s="66">
         <v>2</v>
       </c>
-      <c r="C9" s="84" t="s">
+      <c r="C9" s="63" t="s">
         <v>69</v>
       </c>
-      <c r="D9" s="75" t="s">
+      <c r="D9" s="60" t="s">
         <v>16</v>
       </c>
       <c r="E9" s="16" t="s">
         <v>18</v>
       </c>
       <c r="F9" s="13"/>
-      <c r="G9" s="72" t="s">
+      <c r="G9" s="57" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="10" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B10" s="81"/>
-      <c r="C10" s="78"/>
-      <c r="D10" s="76"/>
+      <c r="B10" s="67"/>
+      <c r="C10" s="64"/>
+      <c r="D10" s="61"/>
       <c r="E10" s="11" t="s">
         <v>17</v>
       </c>
       <c r="F10" s="14"/>
-      <c r="G10" s="73"/>
+      <c r="G10" s="58"/>
     </row>
     <row r="11" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B11" s="81"/>
-      <c r="C11" s="78"/>
-      <c r="D11" s="76"/>
+      <c r="B11" s="67"/>
+      <c r="C11" s="64"/>
+      <c r="D11" s="61"/>
       <c r="E11" s="11" t="s">
         <v>19</v>
       </c>
       <c r="F11" s="14"/>
-      <c r="G11" s="73"/>
+      <c r="G11" s="58"/>
     </row>
     <row r="12" spans="2:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="82"/>
-      <c r="C12" s="79"/>
-      <c r="D12" s="77"/>
+      <c r="B12" s="68"/>
+      <c r="C12" s="65"/>
+      <c r="D12" s="62"/>
       <c r="E12" s="12" t="s">
         <v>20</v>
       </c>
       <c r="F12" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="G12" s="74"/>
+      <c r="G12" s="59"/>
     </row>
     <row r="13" spans="2:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="51">
+      <c r="B13" s="78">
         <v>3</v>
       </c>
-      <c r="C13" s="54" t="s">
+      <c r="C13" s="81" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="57" t="s">
+      <c r="D13" s="84" t="s">
         <v>26</v>
       </c>
       <c r="E13" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="G13" s="60" t="s">
+      <c r="G13" s="87" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="14" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B14" s="52"/>
-      <c r="C14" s="55"/>
-      <c r="D14" s="58"/>
+      <c r="B14" s="79"/>
+      <c r="C14" s="82"/>
+      <c r="D14" s="85"/>
       <c r="E14" s="21" t="s">
         <v>36</v>
       </c>
       <c r="F14" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="G14" s="61"/>
+      <c r="G14" s="88"/>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B15" s="52"/>
-      <c r="C15" s="55"/>
-      <c r="D15" s="58"/>
+      <c r="B15" s="79"/>
+      <c r="C15" s="82"/>
+      <c r="D15" s="85"/>
       <c r="E15" s="7" t="s">
         <v>27</v>
       </c>
       <c r="F15" s="20"/>
-      <c r="G15" s="61"/>
+      <c r="G15" s="88"/>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B16" s="52"/>
-      <c r="C16" s="55"/>
-      <c r="D16" s="58"/>
+      <c r="B16" s="79"/>
+      <c r="C16" s="82"/>
+      <c r="D16" s="85"/>
       <c r="E16" s="7" t="s">
         <v>28</v>
       </c>
       <c r="F16" s="20"/>
-      <c r="G16" s="61"/>
+      <c r="G16" s="88"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B17" s="52"/>
-      <c r="C17" s="55"/>
-      <c r="D17" s="58"/>
+      <c r="B17" s="79"/>
+      <c r="C17" s="82"/>
+      <c r="D17" s="85"/>
       <c r="E17" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="G17" s="61"/>
+      <c r="G17" s="88"/>
     </row>
     <row r="18" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B18" s="52"/>
-      <c r="C18" s="55"/>
-      <c r="D18" s="58"/>
+      <c r="B18" s="79"/>
+      <c r="C18" s="82"/>
+      <c r="D18" s="85"/>
       <c r="E18" s="7" t="s">
         <v>30</v>
       </c>
       <c r="F18" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="G18" s="61"/>
+      <c r="G18" s="88"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B19" s="52"/>
-      <c r="C19" s="55"/>
-      <c r="D19" s="58"/>
+      <c r="B19" s="79"/>
+      <c r="C19" s="82"/>
+      <c r="D19" s="85"/>
       <c r="E19" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="G19" s="61"/>
+      <c r="G19" s="88"/>
     </row>
     <row r="20" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B20" s="52"/>
-      <c r="C20" s="55"/>
-      <c r="D20" s="58"/>
+      <c r="B20" s="79"/>
+      <c r="C20" s="82"/>
+      <c r="D20" s="85"/>
       <c r="E20" s="7" t="s">
         <v>32</v>
       </c>
       <c r="F20" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="G20" s="61"/>
+      <c r="G20" s="88"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B21" s="52"/>
-      <c r="C21" s="55"/>
-      <c r="D21" s="58"/>
+      <c r="B21" s="79"/>
+      <c r="C21" s="82"/>
+      <c r="D21" s="85"/>
       <c r="E21" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="G21" s="61"/>
+      <c r="G21" s="88"/>
     </row>
     <row r="22" spans="2:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="53"/>
-      <c r="C22" s="56"/>
-      <c r="D22" s="59"/>
+      <c r="B22" s="80"/>
+      <c r="C22" s="83"/>
+      <c r="D22" s="86"/>
       <c r="E22" s="9" t="s">
         <v>34</v>
       </c>
       <c r="F22" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="G22" s="62"/>
+      <c r="G22" s="89"/>
     </row>
     <row r="23" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B23" s="36">
+      <c r="B23" s="69">
         <v>4</v>
       </c>
-      <c r="C23" s="48" t="s">
+      <c r="C23" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="D23" s="42" t="s">
+      <c r="D23" s="72" t="s">
         <v>40</v>
       </c>
       <c r="E23" s="17" t="s">
         <v>44</v>
       </c>
       <c r="F23" s="18"/>
-      <c r="G23" s="45" t="s">
+      <c r="G23" s="75" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="24" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B24" s="37"/>
-      <c r="C24" s="49"/>
-      <c r="D24" s="43"/>
+      <c r="B24" s="70"/>
+      <c r="C24" s="52"/>
+      <c r="D24" s="73"/>
       <c r="E24" s="7" t="s">
         <v>45</v>
       </c>
       <c r="F24" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="G24" s="46"/>
+      <c r="G24" s="76"/>
     </row>
     <row r="25" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B25" s="37"/>
-      <c r="C25" s="49"/>
-      <c r="D25" s="43"/>
+      <c r="B25" s="70"/>
+      <c r="C25" s="52"/>
+      <c r="D25" s="73"/>
       <c r="E25" s="7" t="s">
         <v>43</v>
       </c>
       <c r="F25" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="G25" s="46"/>
+      <c r="G25" s="76"/>
     </row>
     <row r="26" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="38"/>
-      <c r="C26" s="50"/>
-      <c r="D26" s="44"/>
+      <c r="B26" s="71"/>
+      <c r="C26" s="53"/>
+      <c r="D26" s="74"/>
       <c r="E26" s="9" t="s">
         <v>46</v>
       </c>
       <c r="F26" s="24"/>
-      <c r="G26" s="47"/>
+      <c r="G26" s="77"/>
     </row>
     <row r="27" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B27" s="36">
+      <c r="B27" s="69">
         <v>5</v>
       </c>
-      <c r="C27" s="48" t="s">
+      <c r="C27" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="42" t="s">
+      <c r="D27" s="72" t="s">
         <v>47</v>
       </c>
       <c r="E27" s="17" t="s">
         <v>44</v>
       </c>
       <c r="F27" s="18"/>
-      <c r="G27" s="45" t="s">
+      <c r="G27" s="75" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="28" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B28" s="37"/>
-      <c r="C28" s="49"/>
-      <c r="D28" s="43"/>
+      <c r="B28" s="70"/>
+      <c r="C28" s="52"/>
+      <c r="D28" s="73"/>
       <c r="E28" s="7" t="s">
         <v>48</v>
       </c>
       <c r="F28" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="G28" s="46"/>
+      <c r="G28" s="76"/>
     </row>
     <row r="29" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B29" s="37"/>
-      <c r="C29" s="49"/>
-      <c r="D29" s="43"/>
+      <c r="B29" s="70"/>
+      <c r="C29" s="52"/>
+      <c r="D29" s="73"/>
       <c r="E29" s="7" t="s">
         <v>50</v>
       </c>
       <c r="F29" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="G29" s="46"/>
+      <c r="G29" s="76"/>
     </row>
     <row r="30" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="38"/>
-      <c r="C30" s="50"/>
-      <c r="D30" s="44"/>
+      <c r="B30" s="71"/>
+      <c r="C30" s="53"/>
+      <c r="D30" s="74"/>
       <c r="E30" s="9" t="s">
         <v>51</v>
       </c>
       <c r="F30" s="24"/>
-      <c r="G30" s="47"/>
+      <c r="G30" s="77"/>
     </row>
     <row r="31" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B31" s="36">
+      <c r="B31" s="69">
         <v>6</v>
       </c>
-      <c r="C31" s="48" t="s">
+      <c r="C31" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="D31" s="42" t="s">
+      <c r="D31" s="72" t="s">
         <v>70</v>
       </c>
       <c r="E31" s="17" t="s">
         <v>44</v>
       </c>
       <c r="F31" s="18"/>
-      <c r="G31" s="45" t="s">
+      <c r="G31" s="75" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="32" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B32" s="37"/>
-      <c r="C32" s="49"/>
-      <c r="D32" s="43"/>
+      <c r="B32" s="70"/>
+      <c r="C32" s="52"/>
+      <c r="D32" s="73"/>
       <c r="E32" s="7" t="s">
         <v>53</v>
       </c>
       <c r="F32" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="G32" s="46"/>
+      <c r="G32" s="76"/>
     </row>
     <row r="33" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B33" s="37"/>
-      <c r="C33" s="49"/>
-      <c r="D33" s="43"/>
+      <c r="B33" s="70"/>
+      <c r="C33" s="52"/>
+      <c r="D33" s="73"/>
       <c r="E33" s="7" t="s">
         <v>54</v>
       </c>
       <c r="F33" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="G33" s="46"/>
+      <c r="G33" s="76"/>
     </row>
     <row r="34" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="38"/>
-      <c r="C34" s="50"/>
-      <c r="D34" s="44"/>
+      <c r="B34" s="71"/>
+      <c r="C34" s="53"/>
+      <c r="D34" s="74"/>
       <c r="E34" s="9" t="s">
         <v>55</v>
       </c>
       <c r="F34" s="24"/>
-      <c r="G34" s="47"/>
+      <c r="G34" s="77"/>
     </row>
     <row r="35" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="36">
+      <c r="B35" s="69">
         <v>7</v>
       </c>
-      <c r="C35" s="39" t="s">
+      <c r="C35" s="90" t="s">
         <v>59</v>
       </c>
-      <c r="D35" s="42" t="s">
+      <c r="D35" s="72" t="s">
         <v>60</v>
       </c>
       <c r="E35" s="26" t="s">
         <v>61</v>
       </c>
       <c r="F35" s="18"/>
-      <c r="G35" s="45" t="s">
+      <c r="G35" s="75" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="36" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B36" s="37"/>
-      <c r="C36" s="40"/>
-      <c r="D36" s="43"/>
+      <c r="B36" s="70"/>
+      <c r="C36" s="91"/>
+      <c r="D36" s="73"/>
       <c r="E36" s="28" t="s">
         <v>66</v>
       </c>
       <c r="F36" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="G36" s="46"/>
+      <c r="G36" s="76"/>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B37" s="37"/>
-      <c r="C37" s="40"/>
-      <c r="D37" s="43"/>
+      <c r="B37" s="70"/>
+      <c r="C37" s="91"/>
+      <c r="D37" s="73"/>
       <c r="E37" s="7" t="s">
         <v>27</v>
       </c>
       <c r="F37" s="20"/>
-      <c r="G37" s="46"/>
+      <c r="G37" s="76"/>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B38" s="37"/>
-      <c r="C38" s="40"/>
-      <c r="D38" s="43"/>
+      <c r="B38" s="70"/>
+      <c r="C38" s="91"/>
+      <c r="D38" s="73"/>
       <c r="E38" s="7" t="s">
         <v>28</v>
       </c>
       <c r="F38" s="20"/>
-      <c r="G38" s="46"/>
+      <c r="G38" s="76"/>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B39" s="37"/>
-      <c r="C39" s="40"/>
-      <c r="D39" s="43"/>
+      <c r="B39" s="70"/>
+      <c r="C39" s="91"/>
+      <c r="D39" s="73"/>
       <c r="E39" s="7" t="s">
         <v>29</v>
       </c>
       <c r="F39" s="19"/>
-      <c r="G39" s="46"/>
+      <c r="G39" s="76"/>
     </row>
     <row r="40" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B40" s="37"/>
-      <c r="C40" s="40"/>
-      <c r="D40" s="43"/>
+      <c r="B40" s="70"/>
+      <c r="C40" s="91"/>
+      <c r="D40" s="73"/>
       <c r="E40" s="7" t="s">
         <v>30</v>
       </c>
       <c r="F40" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="G40" s="46"/>
+      <c r="G40" s="76"/>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B41" s="37"/>
-      <c r="C41" s="40"/>
-      <c r="D41" s="43"/>
+      <c r="B41" s="70"/>
+      <c r="C41" s="91"/>
+      <c r="D41" s="73"/>
       <c r="E41" s="20" t="s">
         <v>31</v>
       </c>
       <c r="F41" s="19"/>
-      <c r="G41" s="46"/>
+      <c r="G41" s="76"/>
     </row>
     <row r="42" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B42" s="37"/>
-      <c r="C42" s="40"/>
-      <c r="D42" s="43"/>
+      <c r="B42" s="70"/>
+      <c r="C42" s="91"/>
+      <c r="D42" s="73"/>
       <c r="E42" s="7" t="s">
         <v>32</v>
       </c>
       <c r="F42" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="G42" s="46"/>
+      <c r="G42" s="76"/>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B43" s="37"/>
-      <c r="C43" s="40"/>
-      <c r="D43" s="43"/>
+      <c r="B43" s="70"/>
+      <c r="C43" s="91"/>
+      <c r="D43" s="73"/>
       <c r="E43" s="20" t="s">
         <v>33</v>
       </c>
       <c r="F43" s="19"/>
-      <c r="G43" s="46"/>
+      <c r="G43" s="76"/>
     </row>
     <row r="44" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B44" s="37"/>
-      <c r="C44" s="40"/>
-      <c r="D44" s="43"/>
+      <c r="B44" s="70"/>
+      <c r="C44" s="91"/>
+      <c r="D44" s="73"/>
       <c r="E44" s="7" t="s">
         <v>34</v>
       </c>
       <c r="F44" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="G44" s="46"/>
+      <c r="G44" s="76"/>
     </row>
     <row r="45" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="38"/>
-      <c r="C45" s="41"/>
-      <c r="D45" s="44"/>
+      <c r="B45" s="71"/>
+      <c r="C45" s="92"/>
+      <c r="D45" s="74"/>
       <c r="E45" s="9" t="s">
         <v>62</v>
       </c>
       <c r="F45" s="24"/>
-      <c r="G45" s="47"/>
+      <c r="G45" s="77"/>
     </row>
     <row r="46" spans="2:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B46" s="33">
@@ -2055,21 +2055,21 @@
     </row>
     <row r="47" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="48" spans="2:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="85" t="s">
+      <c r="B48" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="C48" s="86" t="s">
+      <c r="C48" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="D48" s="87" t="s">
+      <c r="D48" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="E48" s="88" t="s">
+      <c r="E48" s="39" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B49" s="89">
+      <c r="B49" s="40">
         <v>1</v>
       </c>
       <c r="C49" s="27" t="s">
@@ -2078,12 +2078,12 @@
       <c r="D49" s="27" t="s">
         <v>91</v>
       </c>
-      <c r="E49" s="90" t="s">
+      <c r="E49" s="41" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="50" spans="2:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="B50" s="89">
+      <c r="B50" s="40">
         <v>2</v>
       </c>
       <c r="C50" s="27" t="s">
@@ -2092,12 +2092,12 @@
       <c r="D50" s="27" t="s">
         <v>93</v>
       </c>
-      <c r="E50" s="90" t="s">
+      <c r="E50" s="41" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="51" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B51" s="89">
+      <c r="B51" s="40">
         <v>3</v>
       </c>
       <c r="C51" s="27" t="s">
@@ -2106,12 +2106,12 @@
       <c r="D51" s="27" t="s">
         <v>94</v>
       </c>
-      <c r="E51" s="90" t="s">
+      <c r="E51" s="41" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="52" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B52" s="89">
+      <c r="B52" s="40">
         <v>4</v>
       </c>
       <c r="C52" s="27" t="s">
@@ -2120,12 +2120,12 @@
       <c r="D52" s="27" t="s">
         <v>95</v>
       </c>
-      <c r="E52" s="90" t="s">
+      <c r="E52" s="41" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="53" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B53" s="89">
+      <c r="B53" s="40">
         <v>5</v>
       </c>
       <c r="C53" s="27" t="s">
@@ -2134,12 +2134,12 @@
       <c r="D53" s="27" t="s">
         <v>96</v>
       </c>
-      <c r="E53" s="90" t="s">
+      <c r="E53" s="41" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="54" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B54" s="89">
+      <c r="B54" s="40">
         <v>6</v>
       </c>
       <c r="C54" s="27" t="s">
@@ -2148,12 +2148,12 @@
       <c r="D54" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="E54" s="90" t="s">
+      <c r="E54" s="41" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="55" spans="2:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="B55" s="89">
+      <c r="B55" s="40">
         <v>7</v>
       </c>
       <c r="C55" s="27" t="s">
@@ -2162,12 +2162,12 @@
       <c r="D55" s="27" t="s">
         <v>100</v>
       </c>
-      <c r="E55" s="90" t="s">
+      <c r="E55" s="41" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="56" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B56" s="89">
+      <c r="B56" s="40">
         <v>8</v>
       </c>
       <c r="C56" s="27" t="s">
@@ -2176,12 +2176,12 @@
       <c r="D56" s="27" t="s">
         <v>101</v>
       </c>
-      <c r="E56" s="90" t="s">
+      <c r="E56" s="41" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="57" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B57" s="89">
+      <c r="B57" s="40">
         <v>9</v>
       </c>
       <c r="C57" s="27" t="s">
@@ -2190,12 +2190,12 @@
       <c r="D57" s="27" t="s">
         <v>102</v>
       </c>
-      <c r="E57" s="90" t="s">
+      <c r="E57" s="41" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="58" spans="2:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="B58" s="89">
+      <c r="B58" s="40">
         <v>10</v>
       </c>
       <c r="C58" s="27" t="s">
@@ -2204,12 +2204,12 @@
       <c r="D58" s="27" t="s">
         <v>103</v>
       </c>
-      <c r="E58" s="90" t="s">
+      <c r="E58" s="41" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="59" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B59" s="89">
+      <c r="B59" s="40">
         <v>11</v>
       </c>
       <c r="C59" s="27" t="s">
@@ -2218,12 +2218,12 @@
       <c r="D59" s="27" t="s">
         <v>104</v>
       </c>
-      <c r="E59" s="90" t="s">
+      <c r="E59" s="41" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="60" spans="2:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="B60" s="89">
+      <c r="B60" s="40">
         <v>12</v>
       </c>
       <c r="C60" s="27" t="s">
@@ -2232,12 +2232,12 @@
       <c r="D60" s="27" t="s">
         <v>105</v>
       </c>
-      <c r="E60" s="90" t="s">
+      <c r="E60" s="41" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="61" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B61" s="89">
+      <c r="B61" s="40">
         <v>13</v>
       </c>
       <c r="C61" s="27" t="s">
@@ -2246,12 +2246,12 @@
       <c r="D61" s="27" t="s">
         <v>106</v>
       </c>
-      <c r="E61" s="90" t="s">
+      <c r="E61" s="41" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="62" spans="2:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="B62" s="89">
+      <c r="B62" s="40">
         <v>14</v>
       </c>
       <c r="C62" s="27" t="s">
@@ -2260,12 +2260,12 @@
       <c r="D62" s="27" t="s">
         <v>93</v>
       </c>
-      <c r="E62" s="90" t="s">
+      <c r="E62" s="41" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="63" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B63" s="89">
+      <c r="B63" s="40">
         <v>15</v>
       </c>
       <c r="C63" s="27" t="s">
@@ -2274,12 +2274,12 @@
       <c r="D63" s="27" t="s">
         <v>94</v>
       </c>
-      <c r="E63" s="90" t="s">
+      <c r="E63" s="41" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="64" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B64" s="89">
+      <c r="B64" s="40">
         <v>16</v>
       </c>
       <c r="C64" s="27" t="s">
@@ -2288,12 +2288,12 @@
       <c r="D64" s="27" t="s">
         <v>95</v>
       </c>
-      <c r="E64" s="90" t="s">
+      <c r="E64" s="41" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="65" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B65" s="89">
+      <c r="B65" s="40">
         <v>17</v>
       </c>
       <c r="C65" s="27" t="s">
@@ -2302,12 +2302,12 @@
       <c r="D65" s="27" t="s">
         <v>96</v>
       </c>
-      <c r="E65" s="90" t="s">
+      <c r="E65" s="41" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="66" spans="2:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B66" s="91">
+      <c r="B66" s="42">
         <v>18</v>
       </c>
       <c r="C66" s="29" t="s">
@@ -2316,17 +2316,24 @@
       <c r="D66" s="29" t="s">
         <v>97</v>
       </c>
-      <c r="E66" s="92" t="s">
+      <c r="E66" s="43" t="s">
         <v>107</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="B3:B8"/>
-    <mergeCell ref="C3:C8"/>
-    <mergeCell ref="D3:D8"/>
-    <mergeCell ref="G3:G8"/>
+    <mergeCell ref="B35:B45"/>
+    <mergeCell ref="C35:C45"/>
+    <mergeCell ref="D35:D45"/>
+    <mergeCell ref="G35:G45"/>
+    <mergeCell ref="B27:B30"/>
+    <mergeCell ref="C27:C30"/>
+    <mergeCell ref="D27:D30"/>
+    <mergeCell ref="G27:G30"/>
+    <mergeCell ref="B31:B34"/>
+    <mergeCell ref="C31:C34"/>
+    <mergeCell ref="D31:D34"/>
+    <mergeCell ref="G31:G34"/>
     <mergeCell ref="G9:G12"/>
     <mergeCell ref="D9:D12"/>
     <mergeCell ref="C9:C12"/>
@@ -2339,18 +2346,11 @@
     <mergeCell ref="C13:C22"/>
     <mergeCell ref="D13:D22"/>
     <mergeCell ref="G13:G22"/>
-    <mergeCell ref="B35:B45"/>
-    <mergeCell ref="C35:C45"/>
-    <mergeCell ref="D35:D45"/>
-    <mergeCell ref="G35:G45"/>
-    <mergeCell ref="B27:B30"/>
-    <mergeCell ref="C27:C30"/>
-    <mergeCell ref="D27:D30"/>
-    <mergeCell ref="G27:G30"/>
-    <mergeCell ref="B31:B34"/>
-    <mergeCell ref="C31:C34"/>
-    <mergeCell ref="D31:D34"/>
-    <mergeCell ref="G31:G34"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="B3:B8"/>
+    <mergeCell ref="C3:C8"/>
+    <mergeCell ref="D3:D8"/>
+    <mergeCell ref="G3:G8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Тест-кейси Петренко О.xlsx
+++ b/Тест-кейси Петренко О.xlsx
@@ -64,9 +64,6 @@
     <t>Пройдено / PASSED 100%</t>
   </si>
   <si>
-    <t>Авторизація на сайті, та отримання єлемента після авторизації</t>
-  </si>
-  <si>
     <t>2. Ввести ім'я користувача в поле "Name"; Ввести адресу ел. пошти в поле "Email"</t>
   </si>
   <si>
@@ -338,18 +335,29 @@
   </si>
   <si>
     <t>Manual</t>
+  </si>
+  <si>
+    <t>Авторизація на сайті, та отримання елемента після авторизації</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -403,6 +411,25 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -893,21 +920,21 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -928,22 +955,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -954,7 +981,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
@@ -988,51 +1015,84 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1042,130 +1102,97 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="18" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="25" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1476,8 +1503,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:G66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="F52" sqref="F52"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1491,11 +1518,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D1" s="44" t="s">
-        <v>68</v>
-      </c>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
+      <c r="D1" s="58" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
     </row>
     <row r="2" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
@@ -1518,810 +1545,827 @@
       </c>
     </row>
     <row r="3" spans="2:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="45">
+      <c r="B3" s="76">
         <v>1</v>
       </c>
-      <c r="C3" s="48" t="s">
+      <c r="C3" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="51" t="s">
+      <c r="D3" s="44" t="s">
         <v>6</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="54" t="s">
+      <c r="G3" s="63" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="4" spans="2:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="46"/>
-      <c r="C4" s="49"/>
-      <c r="D4" s="52"/>
+      <c r="B4" s="77"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="45"/>
       <c r="E4" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F4" s="8"/>
-      <c r="G4" s="55"/>
+      <c r="G4" s="64"/>
     </row>
     <row r="5" spans="2:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="46"/>
-      <c r="C5" s="49"/>
-      <c r="D5" s="52"/>
+      <c r="B5" s="77"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="45"/>
       <c r="E5" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F5" s="8"/>
-      <c r="G5" s="55"/>
+      <c r="G5" s="64"/>
     </row>
     <row r="6" spans="2:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="46"/>
-      <c r="C6" s="49"/>
-      <c r="D6" s="52"/>
+      <c r="B6" s="77"/>
+      <c r="C6" s="60"/>
+      <c r="D6" s="45"/>
       <c r="E6" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F6" s="8"/>
-      <c r="G6" s="55"/>
+      <c r="G6" s="64"/>
     </row>
     <row r="7" spans="2:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="46"/>
-      <c r="C7" s="49"/>
-      <c r="D7" s="52"/>
+      <c r="B7" s="77"/>
+      <c r="C7" s="60"/>
+      <c r="D7" s="45"/>
       <c r="E7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="F7" s="8"/>
-      <c r="G7" s="55"/>
+      <c r="G7" s="64"/>
     </row>
     <row r="8" spans="2:7" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="47"/>
-      <c r="C8" s="50"/>
-      <c r="D8" s="53"/>
+      <c r="B8" s="78"/>
+      <c r="C8" s="61"/>
+      <c r="D8" s="46"/>
       <c r="E8" s="9" t="s">
         <v>13</v>
       </c>
       <c r="F8" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="56"/>
+      <c r="G8" s="65"/>
     </row>
     <row r="9" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B9" s="66">
+      <c r="B9" s="79">
         <v>2</v>
       </c>
-      <c r="C9" s="63" t="s">
+      <c r="C9" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="D9" s="62" t="s">
+        <v>107</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="13"/>
+      <c r="G9" s="66" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B10" s="80"/>
+      <c r="C10" s="50"/>
+      <c r="D10" s="47"/>
+      <c r="E10" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="14"/>
+      <c r="G10" s="67"/>
+    </row>
+    <row r="11" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B11" s="80"/>
+      <c r="C11" s="50"/>
+      <c r="D11" s="47"/>
+      <c r="E11" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="14"/>
+      <c r="G11" s="67"/>
+    </row>
+    <row r="12" spans="2:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="81"/>
+      <c r="C12" s="51"/>
+      <c r="D12" s="48"/>
+      <c r="E12" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="G12" s="68"/>
+    </row>
+    <row r="13" spans="2:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="82">
+        <v>3</v>
+      </c>
+      <c r="C13" s="52" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="55" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="G13" s="69" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B14" s="83"/>
+      <c r="C14" s="53"/>
+      <c r="D14" s="56"/>
+      <c r="E14" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="F14" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="G14" s="70"/>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B15" s="83"/>
+      <c r="C15" s="53"/>
+      <c r="D15" s="56"/>
+      <c r="E15" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15" s="20"/>
+      <c r="G15" s="70"/>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B16" s="83"/>
+      <c r="C16" s="53"/>
+      <c r="D16" s="56"/>
+      <c r="E16" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F16" s="20"/>
+      <c r="G16" s="70"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B17" s="83"/>
+      <c r="C17" s="53"/>
+      <c r="D17" s="56"/>
+      <c r="E17" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G17" s="70"/>
+    </row>
+    <row r="18" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B18" s="83"/>
+      <c r="C18" s="53"/>
+      <c r="D18" s="56"/>
+      <c r="E18" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F18" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="G18" s="70"/>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B19" s="83"/>
+      <c r="C19" s="53"/>
+      <c r="D19" s="56"/>
+      <c r="E19" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="G19" s="70"/>
+    </row>
+    <row r="20" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B20" s="83"/>
+      <c r="C20" s="53"/>
+      <c r="D20" s="56"/>
+      <c r="E20" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F20" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="G20" s="70"/>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B21" s="83"/>
+      <c r="C21" s="53"/>
+      <c r="D21" s="56"/>
+      <c r="E21" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="G21" s="70"/>
+    </row>
+    <row r="22" spans="2:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="84"/>
+      <c r="C22" s="54"/>
+      <c r="D22" s="57"/>
+      <c r="E22" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="F22" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="G22" s="71"/>
+    </row>
+    <row r="23" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B23" s="85">
+        <v>4</v>
+      </c>
+      <c r="C23" s="44" t="s">
+        <v>21</v>
+      </c>
+      <c r="D23" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="E23" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F23" s="18"/>
+      <c r="G23" s="72" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B24" s="86"/>
+      <c r="C24" s="45"/>
+      <c r="D24" s="42"/>
+      <c r="E24" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="G24" s="73"/>
+    </row>
+    <row r="25" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B25" s="86"/>
+      <c r="C25" s="45"/>
+      <c r="D25" s="42"/>
+      <c r="E25" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F25" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="G25" s="73"/>
+    </row>
+    <row r="26" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="87"/>
+      <c r="C26" s="46"/>
+      <c r="D26" s="43"/>
+      <c r="E26" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F26" s="24"/>
+      <c r="G26" s="74"/>
+    </row>
+    <row r="27" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B27" s="85">
+        <v>5</v>
+      </c>
+      <c r="C27" s="44" t="s">
+        <v>21</v>
+      </c>
+      <c r="D27" s="41" t="s">
+        <v>46</v>
+      </c>
+      <c r="E27" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F27" s="18"/>
+      <c r="G27" s="72" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B28" s="86"/>
+      <c r="C28" s="45"/>
+      <c r="D28" s="42"/>
+      <c r="E28" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F28" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="G28" s="73"/>
+    </row>
+    <row r="29" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B29" s="86"/>
+      <c r="C29" s="45"/>
+      <c r="D29" s="42"/>
+      <c r="E29" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F29" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="G29" s="73"/>
+    </row>
+    <row r="30" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="87"/>
+      <c r="C30" s="46"/>
+      <c r="D30" s="43"/>
+      <c r="E30" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="F30" s="24"/>
+      <c r="G30" s="74"/>
+    </row>
+    <row r="31" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B31" s="85">
+        <v>6</v>
+      </c>
+      <c r="C31" s="44" t="s">
+        <v>21</v>
+      </c>
+      <c r="D31" s="41" t="s">
         <v>69</v>
       </c>
-      <c r="D9" s="60" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="13"/>
-      <c r="G9" s="57" t="s">
+      <c r="E31" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F31" s="18"/>
+      <c r="G31" s="72" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B10" s="67"/>
-      <c r="C10" s="64"/>
-      <c r="D10" s="61"/>
-      <c r="E10" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="F10" s="14"/>
-      <c r="G10" s="58"/>
-    </row>
-    <row r="11" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B11" s="67"/>
-      <c r="C11" s="64"/>
-      <c r="D11" s="61"/>
-      <c r="E11" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="F11" s="14"/>
-      <c r="G11" s="58"/>
-    </row>
-    <row r="12" spans="2:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="68"/>
-      <c r="C12" s="65"/>
-      <c r="D12" s="62"/>
-      <c r="E12" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="F12" s="15" t="s">
+    <row r="32" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B32" s="86"/>
+      <c r="C32" s="45"/>
+      <c r="D32" s="42"/>
+      <c r="E32" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F32" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="G32" s="73"/>
+    </row>
+    <row r="33" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B33" s="86"/>
+      <c r="C33" s="45"/>
+      <c r="D33" s="42"/>
+      <c r="E33" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F33" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="G33" s="73"/>
+    </row>
+    <row r="34" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="87"/>
+      <c r="C34" s="46"/>
+      <c r="D34" s="43"/>
+      <c r="E34" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="F34" s="24"/>
+      <c r="G34" s="74"/>
+    </row>
+    <row r="35" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="85">
+        <v>7</v>
+      </c>
+      <c r="C35" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="D35" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="E35" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="F35" s="18"/>
+      <c r="G35" s="72" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B36" s="86"/>
+      <c r="C36" s="39"/>
+      <c r="D36" s="42"/>
+      <c r="E36" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="F36" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="G36" s="73"/>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B37" s="86"/>
+      <c r="C37" s="39"/>
+      <c r="D37" s="42"/>
+      <c r="E37" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F37" s="20"/>
+      <c r="G37" s="73"/>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B38" s="86"/>
+      <c r="C38" s="39"/>
+      <c r="D38" s="42"/>
+      <c r="E38" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F38" s="20"/>
+      <c r="G38" s="73"/>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B39" s="86"/>
+      <c r="C39" s="39"/>
+      <c r="D39" s="42"/>
+      <c r="E39" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F39" s="19"/>
+      <c r="G39" s="73"/>
+    </row>
+    <row r="40" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B40" s="86"/>
+      <c r="C40" s="39"/>
+      <c r="D40" s="42"/>
+      <c r="E40" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F40" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="G40" s="73"/>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B41" s="86"/>
+      <c r="C41" s="39"/>
+      <c r="D41" s="42"/>
+      <c r="E41" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="F41" s="19"/>
+      <c r="G41" s="73"/>
+    </row>
+    <row r="42" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B42" s="86"/>
+      <c r="C42" s="39"/>
+      <c r="D42" s="42"/>
+      <c r="E42" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F42" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="G42" s="73"/>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B43" s="86"/>
+      <c r="C43" s="39"/>
+      <c r="D43" s="42"/>
+      <c r="E43" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="F43" s="19"/>
+      <c r="G43" s="73"/>
+    </row>
+    <row r="44" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B44" s="86"/>
+      <c r="C44" s="39"/>
+      <c r="D44" s="42"/>
+      <c r="E44" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F44" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="G44" s="73"/>
+    </row>
+    <row r="45" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="87"/>
+      <c r="C45" s="40"/>
+      <c r="D45" s="43"/>
+      <c r="E45" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="F45" s="24"/>
+      <c r="G45" s="74"/>
+    </row>
+    <row r="46" spans="2:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="88">
+        <v>8</v>
+      </c>
+      <c r="C46" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="G12" s="59"/>
-    </row>
-    <row r="13" spans="2:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="78">
-        <v>3</v>
-      </c>
-      <c r="C13" s="81" t="s">
-        <v>22</v>
-      </c>
-      <c r="D13" s="84" t="s">
-        <v>26</v>
-      </c>
-      <c r="E13" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="G13" s="87" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B14" s="79"/>
-      <c r="C14" s="82"/>
-      <c r="D14" s="85"/>
-      <c r="E14" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="F14" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="G14" s="88"/>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B15" s="79"/>
-      <c r="C15" s="82"/>
-      <c r="D15" s="85"/>
-      <c r="E15" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F15" s="20"/>
-      <c r="G15" s="88"/>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B16" s="79"/>
-      <c r="C16" s="82"/>
-      <c r="D16" s="85"/>
-      <c r="E16" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F16" s="20"/>
-      <c r="G16" s="88"/>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B17" s="79"/>
-      <c r="C17" s="82"/>
-      <c r="D17" s="85"/>
-      <c r="E17" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="G17" s="88"/>
-    </row>
-    <row r="18" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B18" s="79"/>
-      <c r="C18" s="82"/>
-      <c r="D18" s="85"/>
-      <c r="E18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F18" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="G18" s="88"/>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B19" s="79"/>
-      <c r="C19" s="82"/>
-      <c r="D19" s="85"/>
-      <c r="E19" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="G19" s="88"/>
-    </row>
-    <row r="20" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B20" s="79"/>
-      <c r="C20" s="82"/>
-      <c r="D20" s="85"/>
-      <c r="E20" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F20" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="G20" s="88"/>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B21" s="79"/>
-      <c r="C21" s="82"/>
-      <c r="D21" s="85"/>
-      <c r="E21" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="G21" s="88"/>
-    </row>
-    <row r="22" spans="2:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="80"/>
-      <c r="C22" s="83"/>
-      <c r="D22" s="86"/>
-      <c r="E22" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="F22" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G22" s="89"/>
-    </row>
-    <row r="23" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B23" s="69">
-        <v>4</v>
-      </c>
-      <c r="C23" s="51" t="s">
-        <v>22</v>
-      </c>
-      <c r="D23" s="72" t="s">
-        <v>40</v>
-      </c>
-      <c r="E23" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="F23" s="18"/>
-      <c r="G23" s="75" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B24" s="70"/>
-      <c r="C24" s="52"/>
-      <c r="D24" s="73"/>
-      <c r="E24" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F24" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="G24" s="76"/>
-    </row>
-    <row r="25" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B25" s="70"/>
-      <c r="C25" s="52"/>
-      <c r="D25" s="73"/>
-      <c r="E25" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="F25" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="G25" s="76"/>
-    </row>
-    <row r="26" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="71"/>
-      <c r="C26" s="53"/>
-      <c r="D26" s="74"/>
-      <c r="E26" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="F26" s="24"/>
-      <c r="G26" s="77"/>
-    </row>
-    <row r="27" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B27" s="69">
-        <v>5</v>
-      </c>
-      <c r="C27" s="51" t="s">
-        <v>22</v>
-      </c>
-      <c r="D27" s="72" t="s">
-        <v>47</v>
-      </c>
-      <c r="E27" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="F27" s="18"/>
-      <c r="G27" s="75" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="28" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B28" s="70"/>
-      <c r="C28" s="52"/>
-      <c r="D28" s="73"/>
-      <c r="E28" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="F28" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="G28" s="76"/>
-    </row>
-    <row r="29" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B29" s="70"/>
-      <c r="C29" s="52"/>
-      <c r="D29" s="73"/>
-      <c r="E29" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F29" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="G29" s="76"/>
-    </row>
-    <row r="30" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="71"/>
-      <c r="C30" s="53"/>
-      <c r="D30" s="74"/>
-      <c r="E30" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="F30" s="24"/>
-      <c r="G30" s="77"/>
-    </row>
-    <row r="31" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B31" s="69">
-        <v>6</v>
-      </c>
-      <c r="C31" s="51" t="s">
-        <v>22</v>
-      </c>
-      <c r="D31" s="72" t="s">
-        <v>70</v>
-      </c>
-      <c r="E31" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="F31" s="18"/>
-      <c r="G31" s="75" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="32" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B32" s="70"/>
-      <c r="C32" s="52"/>
-      <c r="D32" s="73"/>
-      <c r="E32" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="F32" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="G32" s="76"/>
-    </row>
-    <row r="33" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B33" s="70"/>
-      <c r="C33" s="52"/>
-      <c r="D33" s="73"/>
-      <c r="E33" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="F33" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="G33" s="76"/>
-    </row>
-    <row r="34" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="71"/>
-      <c r="C34" s="53"/>
-      <c r="D34" s="74"/>
-      <c r="E34" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="F34" s="24"/>
-      <c r="G34" s="77"/>
-    </row>
-    <row r="35" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="69">
-        <v>7</v>
-      </c>
-      <c r="C35" s="90" t="s">
-        <v>59</v>
-      </c>
-      <c r="D35" s="72" t="s">
-        <v>60</v>
-      </c>
-      <c r="E35" s="26" t="s">
-        <v>61</v>
-      </c>
-      <c r="F35" s="18"/>
-      <c r="G35" s="75" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="36" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B36" s="70"/>
-      <c r="C36" s="91"/>
-      <c r="D36" s="73"/>
-      <c r="E36" s="28" t="s">
+      <c r="D46" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="F36" s="20" t="s">
+      <c r="E46" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="G36" s="76"/>
-    </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B37" s="70"/>
-      <c r="C37" s="91"/>
-      <c r="D37" s="73"/>
-      <c r="E37" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F37" s="20"/>
-      <c r="G37" s="76"/>
-    </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B38" s="70"/>
-      <c r="C38" s="91"/>
-      <c r="D38" s="73"/>
-      <c r="E38" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F38" s="20"/>
-      <c r="G38" s="76"/>
-    </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B39" s="70"/>
-      <c r="C39" s="91"/>
-      <c r="D39" s="73"/>
-      <c r="E39" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="F39" s="19"/>
-      <c r="G39" s="76"/>
-    </row>
-    <row r="40" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B40" s="70"/>
-      <c r="C40" s="91"/>
-      <c r="D40" s="73"/>
-      <c r="E40" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F40" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="G40" s="76"/>
-    </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B41" s="70"/>
-      <c r="C41" s="91"/>
-      <c r="D41" s="73"/>
-      <c r="E41" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="F41" s="19"/>
-      <c r="G41" s="76"/>
-    </row>
-    <row r="42" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B42" s="70"/>
-      <c r="C42" s="91"/>
-      <c r="D42" s="73"/>
-      <c r="E42" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F42" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="G42" s="76"/>
-    </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B43" s="70"/>
-      <c r="C43" s="91"/>
-      <c r="D43" s="73"/>
-      <c r="E43" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="F43" s="19"/>
-      <c r="G43" s="76"/>
-    </row>
-    <row r="44" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B44" s="70"/>
-      <c r="C44" s="91"/>
-      <c r="D44" s="73"/>
-      <c r="E44" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="F44" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="G44" s="76"/>
-    </row>
-    <row r="45" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="71"/>
-      <c r="C45" s="92"/>
-      <c r="D45" s="74"/>
-      <c r="E45" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="F45" s="24"/>
-      <c r="G45" s="77"/>
-    </row>
-    <row r="46" spans="2:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="33">
-        <v>8</v>
-      </c>
-      <c r="C46" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="D46" s="31" t="s">
-        <v>67</v>
-      </c>
-      <c r="E46" s="32" t="s">
+      <c r="F46" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="F46" s="34" t="s">
-        <v>65</v>
-      </c>
-      <c r="G46" s="35" t="s">
+      <c r="G46" s="75" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="47" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="48" spans="2:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="36" t="s">
+      <c r="B48" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="C48" s="37" t="s">
+      <c r="C48" s="35" t="s">
+        <v>70</v>
+      </c>
+      <c r="D48" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="D48" s="38" t="s">
+      <c r="E48" s="37" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B49" s="89">
+        <v>1</v>
+      </c>
+      <c r="C49" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="E48" s="39" t="s">
+      <c r="D49" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="E49" s="91" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="B50" s="89">
+        <v>2</v>
+      </c>
+      <c r="C50" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="D50" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="E50" s="91" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B51" s="89">
+        <v>3</v>
+      </c>
+      <c r="C51" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="D51" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="E51" s="91" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B52" s="89">
+        <v>4</v>
+      </c>
+      <c r="C52" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="D52" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="E52" s="91" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B53" s="89">
+        <v>5</v>
+      </c>
+      <c r="C53" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="D53" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="E53" s="91" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B54" s="89">
+        <v>6</v>
+      </c>
+      <c r="C54" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="D54" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="E54" s="91" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="55" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="B55" s="89">
+        <v>7</v>
+      </c>
+      <c r="C55" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="D55" s="27" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B49" s="40">
-        <v>1</v>
-      </c>
-      <c r="C49" s="27" t="s">
-        <v>73</v>
-      </c>
-      <c r="D49" s="27" t="s">
-        <v>91</v>
-      </c>
-      <c r="E49" s="41" t="s">
+      <c r="E55" s="91" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="56" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B56" s="89">
+        <v>8</v>
+      </c>
+      <c r="C56" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="D56" s="27" t="s">
+        <v>100</v>
+      </c>
+      <c r="E56" s="91" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="57" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B57" s="89">
+        <v>9</v>
+      </c>
+      <c r="C57" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="D57" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="E57" s="91" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="58" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="B58" s="89">
+        <v>10</v>
+      </c>
+      <c r="C58" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="D58" s="27" t="s">
+        <v>102</v>
+      </c>
+      <c r="E58" s="91" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="59" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B59" s="89">
+        <v>11</v>
+      </c>
+      <c r="C59" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="D59" s="27" t="s">
+        <v>103</v>
+      </c>
+      <c r="E59" s="91" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="60" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="B60" s="89">
+        <v>12</v>
+      </c>
+      <c r="C60" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="D60" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="E60" s="91" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="61" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B61" s="89">
+        <v>13</v>
+      </c>
+      <c r="C61" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="D61" s="27" t="s">
+        <v>105</v>
+      </c>
+      <c r="E61" s="91" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="62" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="B62" s="89">
+        <v>14</v>
+      </c>
+      <c r="C62" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="D62" s="27" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="50" spans="2:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="B50" s="40">
-        <v>2</v>
-      </c>
-      <c r="C50" s="27" t="s">
-        <v>74</v>
-      </c>
-      <c r="D50" s="27" t="s">
+      <c r="E62" s="91" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="63" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B63" s="89">
+        <v>15</v>
+      </c>
+      <c r="C63" s="27" t="s">
+        <v>86</v>
+      </c>
+      <c r="D63" s="27" t="s">
         <v>93</v>
       </c>
-      <c r="E50" s="41" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="51" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B51" s="40">
-        <v>3</v>
-      </c>
-      <c r="C51" s="27" t="s">
-        <v>75</v>
-      </c>
-      <c r="D51" s="27" t="s">
+      <c r="E63" s="91" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="64" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B64" s="89">
+        <v>16</v>
+      </c>
+      <c r="C64" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="D64" s="27" t="s">
         <v>94</v>
       </c>
-      <c r="E51" s="41" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="52" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B52" s="40">
-        <v>4</v>
-      </c>
-      <c r="C52" s="27" t="s">
-        <v>76</v>
-      </c>
-      <c r="D52" s="27" t="s">
+      <c r="E64" s="91" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="65" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B65" s="89">
+        <v>17</v>
+      </c>
+      <c r="C65" s="27" t="s">
+        <v>88</v>
+      </c>
+      <c r="D65" s="27" t="s">
         <v>95</v>
       </c>
-      <c r="E52" s="41" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="53" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B53" s="40">
-        <v>5</v>
-      </c>
-      <c r="C53" s="27" t="s">
-        <v>77</v>
-      </c>
-      <c r="D53" s="27" t="s">
+      <c r="E65" s="91" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="66" spans="2:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B66" s="90">
+        <v>18</v>
+      </c>
+      <c r="C66" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="D66" s="29" t="s">
         <v>96</v>
       </c>
-      <c r="E53" s="41" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="54" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B54" s="40">
-        <v>6</v>
-      </c>
-      <c r="C54" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="D54" s="27" t="s">
-        <v>97</v>
-      </c>
-      <c r="E54" s="41" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="55" spans="2:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="B55" s="40">
-        <v>7</v>
-      </c>
-      <c r="C55" s="27" t="s">
-        <v>79</v>
-      </c>
-      <c r="D55" s="27" t="s">
-        <v>100</v>
-      </c>
-      <c r="E55" s="41" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="56" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B56" s="40">
-        <v>8</v>
-      </c>
-      <c r="C56" s="27" t="s">
-        <v>80</v>
-      </c>
-      <c r="D56" s="27" t="s">
-        <v>101</v>
-      </c>
-      <c r="E56" s="41" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="57" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B57" s="40">
-        <v>9</v>
-      </c>
-      <c r="C57" s="27" t="s">
-        <v>81</v>
-      </c>
-      <c r="D57" s="27" t="s">
-        <v>102</v>
-      </c>
-      <c r="E57" s="41" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="58" spans="2:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="B58" s="40">
-        <v>10</v>
-      </c>
-      <c r="C58" s="27" t="s">
-        <v>82</v>
-      </c>
-      <c r="D58" s="27" t="s">
-        <v>103</v>
-      </c>
-      <c r="E58" s="41" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="59" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B59" s="40">
-        <v>11</v>
-      </c>
-      <c r="C59" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="D59" s="27" t="s">
-        <v>104</v>
-      </c>
-      <c r="E59" s="41" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="60" spans="2:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="B60" s="40">
-        <v>12</v>
-      </c>
-      <c r="C60" s="27" t="s">
-        <v>84</v>
-      </c>
-      <c r="D60" s="27" t="s">
-        <v>105</v>
-      </c>
-      <c r="E60" s="41" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="61" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B61" s="40">
-        <v>13</v>
-      </c>
-      <c r="C61" s="27" t="s">
-        <v>85</v>
-      </c>
-      <c r="D61" s="27" t="s">
+      <c r="E66" s="92" t="s">
         <v>106</v>
-      </c>
-      <c r="E61" s="41" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="62" spans="2:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="B62" s="40">
-        <v>14</v>
-      </c>
-      <c r="C62" s="27" t="s">
-        <v>86</v>
-      </c>
-      <c r="D62" s="27" t="s">
-        <v>93</v>
-      </c>
-      <c r="E62" s="41" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="63" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B63" s="40">
-        <v>15</v>
-      </c>
-      <c r="C63" s="27" t="s">
-        <v>87</v>
-      </c>
-      <c r="D63" s="27" t="s">
-        <v>94</v>
-      </c>
-      <c r="E63" s="41" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="64" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B64" s="40">
-        <v>16</v>
-      </c>
-      <c r="C64" s="27" t="s">
-        <v>88</v>
-      </c>
-      <c r="D64" s="27" t="s">
-        <v>95</v>
-      </c>
-      <c r="E64" s="41" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="65" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B65" s="40">
-        <v>17</v>
-      </c>
-      <c r="C65" s="27" t="s">
-        <v>89</v>
-      </c>
-      <c r="D65" s="27" t="s">
-        <v>96</v>
-      </c>
-      <c r="E65" s="41" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="66" spans="2:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B66" s="42">
-        <v>18</v>
-      </c>
-      <c r="C66" s="29" t="s">
-        <v>90</v>
-      </c>
-      <c r="D66" s="29" t="s">
-        <v>97</v>
-      </c>
-      <c r="E66" s="43" t="s">
-        <v>107</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="B3:B8"/>
+    <mergeCell ref="C3:C8"/>
+    <mergeCell ref="D3:D8"/>
+    <mergeCell ref="G3:G8"/>
+    <mergeCell ref="G9:G12"/>
+    <mergeCell ref="D9:D12"/>
+    <mergeCell ref="C9:C12"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="B23:B26"/>
+    <mergeCell ref="C23:C26"/>
+    <mergeCell ref="D23:D26"/>
+    <mergeCell ref="G23:G26"/>
+    <mergeCell ref="B13:B22"/>
+    <mergeCell ref="C13:C22"/>
+    <mergeCell ref="D13:D22"/>
+    <mergeCell ref="G13:G22"/>
     <mergeCell ref="B35:B45"/>
     <mergeCell ref="C35:C45"/>
     <mergeCell ref="D35:D45"/>
@@ -2334,23 +2378,6 @@
     <mergeCell ref="C31:C34"/>
     <mergeCell ref="D31:D34"/>
     <mergeCell ref="G31:G34"/>
-    <mergeCell ref="G9:G12"/>
-    <mergeCell ref="D9:D12"/>
-    <mergeCell ref="C9:C12"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="B23:B26"/>
-    <mergeCell ref="C23:C26"/>
-    <mergeCell ref="D23:D26"/>
-    <mergeCell ref="G23:G26"/>
-    <mergeCell ref="B13:B22"/>
-    <mergeCell ref="C13:C22"/>
-    <mergeCell ref="D13:D22"/>
-    <mergeCell ref="G13:G22"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="B3:B8"/>
-    <mergeCell ref="C3:C8"/>
-    <mergeCell ref="D3:D8"/>
-    <mergeCell ref="G3:G8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Тест-кейси Петренко О.xlsx
+++ b/Тест-кейси Петренко О.xlsx
@@ -205,18 +205,9 @@
     <t>Посередині з'явиться спливаюче вікно з параметрами товару</t>
   </si>
   <si>
-    <t>1. Переглянути спиоск узгоджених заявок в розділі "History Orders List"</t>
-  </si>
-  <si>
-    <t>В результаті отримаемо список з всіма зявками.</t>
-  </si>
-  <si>
     <t>2. Натиснути на кнопку "Edit Order" необхідного товару.</t>
   </si>
   <si>
-    <t>Історія Узгоджених Заявок</t>
-  </si>
-  <si>
     <t>Тестування Web додатку та API</t>
   </si>
   <si>
@@ -338,6 +329,15 @@
   </si>
   <si>
     <t>Авторизація на сайті, та отримання елемента після авторизації</t>
+  </si>
+  <si>
+    <t>Історія Узгоджених Товарів</t>
+  </si>
+  <si>
+    <t>1. Переглянути спиоск узгоджених товарів в розділі "History Orders List"</t>
+  </si>
+  <si>
+    <t>В результаті отримаемо список з всіма товарами.</t>
   </si>
 </sst>
 </file>
@@ -1030,69 +1030,36 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1102,26 +1069,113 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1132,67 +1186,13 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1503,8 +1503,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:G66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="H41" sqref="H41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1518,11 +1518,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D1" s="58" t="s">
-        <v>67</v>
-      </c>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
+      <c r="D1" s="44" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
     </row>
     <row r="2" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
@@ -1545,13 +1545,13 @@
       </c>
     </row>
     <row r="3" spans="2:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="76">
+      <c r="B3" s="45">
         <v>1</v>
       </c>
-      <c r="C3" s="59" t="s">
+      <c r="C3" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="44" t="s">
+      <c r="D3" s="51" t="s">
         <v>6</v>
       </c>
       <c r="E3" s="5" t="s">
@@ -1560,523 +1560,523 @@
       <c r="F3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="63" t="s">
+      <c r="G3" s="54" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="4" spans="2:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="77"/>
-      <c r="C4" s="60"/>
-      <c r="D4" s="45"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="52"/>
       <c r="E4" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F4" s="8"/>
-      <c r="G4" s="64"/>
+      <c r="G4" s="55"/>
     </row>
     <row r="5" spans="2:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="77"/>
-      <c r="C5" s="60"/>
-      <c r="D5" s="45"/>
+      <c r="B5" s="46"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="52"/>
       <c r="E5" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F5" s="8"/>
-      <c r="G5" s="64"/>
+      <c r="G5" s="55"/>
     </row>
     <row r="6" spans="2:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="77"/>
-      <c r="C6" s="60"/>
-      <c r="D6" s="45"/>
+      <c r="B6" s="46"/>
+      <c r="C6" s="49"/>
+      <c r="D6" s="52"/>
       <c r="E6" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F6" s="8"/>
-      <c r="G6" s="64"/>
+      <c r="G6" s="55"/>
     </row>
     <row r="7" spans="2:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="77"/>
-      <c r="C7" s="60"/>
-      <c r="D7" s="45"/>
+      <c r="B7" s="46"/>
+      <c r="C7" s="49"/>
+      <c r="D7" s="52"/>
       <c r="E7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="F7" s="8"/>
-      <c r="G7" s="64"/>
+      <c r="G7" s="55"/>
     </row>
     <row r="8" spans="2:7" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="78"/>
-      <c r="C8" s="61"/>
-      <c r="D8" s="46"/>
+      <c r="B8" s="47"/>
+      <c r="C8" s="50"/>
+      <c r="D8" s="53"/>
       <c r="E8" s="9" t="s">
         <v>13</v>
       </c>
       <c r="F8" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="65"/>
+      <c r="G8" s="56"/>
     </row>
     <row r="9" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B9" s="79">
+      <c r="B9" s="66">
         <v>2</v>
       </c>
-      <c r="C9" s="49" t="s">
-        <v>68</v>
-      </c>
-      <c r="D9" s="62" t="s">
-        <v>107</v>
+      <c r="C9" s="63" t="s">
+        <v>65</v>
+      </c>
+      <c r="D9" s="60" t="s">
+        <v>104</v>
       </c>
       <c r="E9" s="16" t="s">
         <v>17</v>
       </c>
       <c r="F9" s="13"/>
-      <c r="G9" s="66" t="s">
+      <c r="G9" s="57" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="10" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B10" s="80"/>
-      <c r="C10" s="50"/>
-      <c r="D10" s="47"/>
+      <c r="B10" s="67"/>
+      <c r="C10" s="64"/>
+      <c r="D10" s="61"/>
       <c r="E10" s="11" t="s">
         <v>16</v>
       </c>
       <c r="F10" s="14"/>
-      <c r="G10" s="67"/>
+      <c r="G10" s="58"/>
     </row>
     <row r="11" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B11" s="80"/>
-      <c r="C11" s="50"/>
-      <c r="D11" s="47"/>
+      <c r="B11" s="67"/>
+      <c r="C11" s="64"/>
+      <c r="D11" s="61"/>
       <c r="E11" s="11" t="s">
         <v>18</v>
       </c>
       <c r="F11" s="14"/>
-      <c r="G11" s="67"/>
+      <c r="G11" s="58"/>
     </row>
     <row r="12" spans="2:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="81"/>
-      <c r="C12" s="51"/>
-      <c r="D12" s="48"/>
+      <c r="B12" s="68"/>
+      <c r="C12" s="65"/>
+      <c r="D12" s="62"/>
       <c r="E12" s="12" t="s">
         <v>19</v>
       </c>
       <c r="F12" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="G12" s="68"/>
+      <c r="G12" s="59"/>
     </row>
     <row r="13" spans="2:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="82">
+      <c r="B13" s="78">
         <v>3</v>
       </c>
-      <c r="C13" s="52" t="s">
+      <c r="C13" s="81" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="55" t="s">
+      <c r="D13" s="84" t="s">
         <v>25</v>
       </c>
       <c r="E13" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="G13" s="69" t="s">
+      <c r="G13" s="87" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="14" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B14" s="83"/>
-      <c r="C14" s="53"/>
-      <c r="D14" s="56"/>
+      <c r="B14" s="79"/>
+      <c r="C14" s="82"/>
+      <c r="D14" s="85"/>
       <c r="E14" s="21" t="s">
         <v>35</v>
       </c>
       <c r="F14" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="G14" s="70"/>
+      <c r="G14" s="88"/>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B15" s="83"/>
-      <c r="C15" s="53"/>
-      <c r="D15" s="56"/>
+      <c r="B15" s="79"/>
+      <c r="C15" s="82"/>
+      <c r="D15" s="85"/>
       <c r="E15" s="7" t="s">
         <v>26</v>
       </c>
       <c r="F15" s="20"/>
-      <c r="G15" s="70"/>
+      <c r="G15" s="88"/>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B16" s="83"/>
-      <c r="C16" s="53"/>
-      <c r="D16" s="56"/>
+      <c r="B16" s="79"/>
+      <c r="C16" s="82"/>
+      <c r="D16" s="85"/>
       <c r="E16" s="7" t="s">
         <v>27</v>
       </c>
       <c r="F16" s="20"/>
-      <c r="G16" s="70"/>
+      <c r="G16" s="88"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B17" s="83"/>
-      <c r="C17" s="53"/>
-      <c r="D17" s="56"/>
+      <c r="B17" s="79"/>
+      <c r="C17" s="82"/>
+      <c r="D17" s="85"/>
       <c r="E17" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="G17" s="70"/>
+      <c r="G17" s="88"/>
     </row>
     <row r="18" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B18" s="83"/>
-      <c r="C18" s="53"/>
-      <c r="D18" s="56"/>
+      <c r="B18" s="79"/>
+      <c r="C18" s="82"/>
+      <c r="D18" s="85"/>
       <c r="E18" s="7" t="s">
         <v>29</v>
       </c>
       <c r="F18" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="G18" s="70"/>
+      <c r="G18" s="88"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B19" s="83"/>
-      <c r="C19" s="53"/>
-      <c r="D19" s="56"/>
+      <c r="B19" s="79"/>
+      <c r="C19" s="82"/>
+      <c r="D19" s="85"/>
       <c r="E19" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="G19" s="70"/>
+      <c r="G19" s="88"/>
     </row>
     <row r="20" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B20" s="83"/>
-      <c r="C20" s="53"/>
-      <c r="D20" s="56"/>
+      <c r="B20" s="79"/>
+      <c r="C20" s="82"/>
+      <c r="D20" s="85"/>
       <c r="E20" s="7" t="s">
         <v>31</v>
       </c>
       <c r="F20" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="G20" s="70"/>
+      <c r="G20" s="88"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B21" s="83"/>
-      <c r="C21" s="53"/>
-      <c r="D21" s="56"/>
+      <c r="B21" s="79"/>
+      <c r="C21" s="82"/>
+      <c r="D21" s="85"/>
       <c r="E21" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="G21" s="70"/>
+      <c r="G21" s="88"/>
     </row>
     <row r="22" spans="2:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="84"/>
-      <c r="C22" s="54"/>
-      <c r="D22" s="57"/>
+      <c r="B22" s="80"/>
+      <c r="C22" s="83"/>
+      <c r="D22" s="86"/>
       <c r="E22" s="9" t="s">
         <v>33</v>
       </c>
       <c r="F22" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="G22" s="71"/>
+      <c r="G22" s="89"/>
     </row>
     <row r="23" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B23" s="85">
+      <c r="B23" s="69">
         <v>4</v>
       </c>
-      <c r="C23" s="44" t="s">
+      <c r="C23" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="D23" s="41" t="s">
+      <c r="D23" s="72" t="s">
         <v>39</v>
       </c>
       <c r="E23" s="17" t="s">
         <v>43</v>
       </c>
       <c r="F23" s="18"/>
-      <c r="G23" s="72" t="s">
+      <c r="G23" s="75" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="24" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B24" s="86"/>
-      <c r="C24" s="45"/>
-      <c r="D24" s="42"/>
+      <c r="B24" s="70"/>
+      <c r="C24" s="52"/>
+      <c r="D24" s="73"/>
       <c r="E24" s="7" t="s">
         <v>44</v>
       </c>
       <c r="F24" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="G24" s="73"/>
+      <c r="G24" s="76"/>
     </row>
     <row r="25" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B25" s="86"/>
-      <c r="C25" s="45"/>
-      <c r="D25" s="42"/>
+      <c r="B25" s="70"/>
+      <c r="C25" s="52"/>
+      <c r="D25" s="73"/>
       <c r="E25" s="7" t="s">
         <v>42</v>
       </c>
       <c r="F25" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="G25" s="73"/>
+      <c r="G25" s="76"/>
     </row>
     <row r="26" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="87"/>
-      <c r="C26" s="46"/>
-      <c r="D26" s="43"/>
+      <c r="B26" s="71"/>
+      <c r="C26" s="53"/>
+      <c r="D26" s="74"/>
       <c r="E26" s="9" t="s">
         <v>45</v>
       </c>
       <c r="F26" s="24"/>
-      <c r="G26" s="74"/>
+      <c r="G26" s="77"/>
     </row>
     <row r="27" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B27" s="85">
+      <c r="B27" s="69">
         <v>5</v>
       </c>
-      <c r="C27" s="44" t="s">
+      <c r="C27" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="D27" s="41" t="s">
+      <c r="D27" s="72" t="s">
         <v>46</v>
       </c>
       <c r="E27" s="17" t="s">
         <v>43</v>
       </c>
       <c r="F27" s="18"/>
-      <c r="G27" s="72" t="s">
+      <c r="G27" s="75" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="28" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B28" s="86"/>
-      <c r="C28" s="45"/>
-      <c r="D28" s="42"/>
+      <c r="B28" s="70"/>
+      <c r="C28" s="52"/>
+      <c r="D28" s="73"/>
       <c r="E28" s="7" t="s">
         <v>47</v>
       </c>
       <c r="F28" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="G28" s="73"/>
+      <c r="G28" s="76"/>
     </row>
     <row r="29" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B29" s="86"/>
-      <c r="C29" s="45"/>
-      <c r="D29" s="42"/>
+      <c r="B29" s="70"/>
+      <c r="C29" s="52"/>
+      <c r="D29" s="73"/>
       <c r="E29" s="7" t="s">
         <v>49</v>
       </c>
       <c r="F29" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="G29" s="73"/>
+      <c r="G29" s="76"/>
     </row>
     <row r="30" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="87"/>
-      <c r="C30" s="46"/>
-      <c r="D30" s="43"/>
+      <c r="B30" s="71"/>
+      <c r="C30" s="53"/>
+      <c r="D30" s="74"/>
       <c r="E30" s="9" t="s">
         <v>50</v>
       </c>
       <c r="F30" s="24"/>
-      <c r="G30" s="74"/>
+      <c r="G30" s="77"/>
     </row>
     <row r="31" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B31" s="85">
+      <c r="B31" s="69">
         <v>6</v>
       </c>
-      <c r="C31" s="44" t="s">
+      <c r="C31" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="D31" s="41" t="s">
-        <v>69</v>
+      <c r="D31" s="72" t="s">
+        <v>66</v>
       </c>
       <c r="E31" s="17" t="s">
         <v>43</v>
       </c>
       <c r="F31" s="18"/>
-      <c r="G31" s="72" t="s">
+      <c r="G31" s="75" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="32" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B32" s="86"/>
-      <c r="C32" s="45"/>
-      <c r="D32" s="42"/>
+      <c r="B32" s="70"/>
+      <c r="C32" s="52"/>
+      <c r="D32" s="73"/>
       <c r="E32" s="7" t="s">
         <v>52</v>
       </c>
       <c r="F32" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="G32" s="73"/>
+      <c r="G32" s="76"/>
     </row>
     <row r="33" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B33" s="86"/>
-      <c r="C33" s="45"/>
-      <c r="D33" s="42"/>
+      <c r="B33" s="70"/>
+      <c r="C33" s="52"/>
+      <c r="D33" s="73"/>
       <c r="E33" s="7" t="s">
         <v>53</v>
       </c>
       <c r="F33" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="G33" s="73"/>
+      <c r="G33" s="76"/>
     </row>
     <row r="34" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="87"/>
-      <c r="C34" s="46"/>
-      <c r="D34" s="43"/>
+      <c r="B34" s="71"/>
+      <c r="C34" s="53"/>
+      <c r="D34" s="74"/>
       <c r="E34" s="9" t="s">
         <v>54</v>
       </c>
       <c r="F34" s="24"/>
-      <c r="G34" s="74"/>
+      <c r="G34" s="77"/>
     </row>
     <row r="35" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="85">
+      <c r="B35" s="69">
         <v>7</v>
       </c>
-      <c r="C35" s="38" t="s">
+      <c r="C35" s="90" t="s">
         <v>58</v>
       </c>
-      <c r="D35" s="41" t="s">
+      <c r="D35" s="72" t="s">
         <v>59</v>
       </c>
       <c r="E35" s="26" t="s">
         <v>60</v>
       </c>
       <c r="F35" s="18"/>
-      <c r="G35" s="72" t="s">
+      <c r="G35" s="75" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="36" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B36" s="86"/>
-      <c r="C36" s="39"/>
-      <c r="D36" s="42"/>
+      <c r="B36" s="70"/>
+      <c r="C36" s="91"/>
+      <c r="D36" s="73"/>
       <c r="E36" s="28" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F36" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="G36" s="73"/>
+      <c r="G36" s="76"/>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B37" s="86"/>
-      <c r="C37" s="39"/>
-      <c r="D37" s="42"/>
+      <c r="B37" s="70"/>
+      <c r="C37" s="91"/>
+      <c r="D37" s="73"/>
       <c r="E37" s="7" t="s">
         <v>26</v>
       </c>
       <c r="F37" s="20"/>
-      <c r="G37" s="73"/>
+      <c r="G37" s="76"/>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B38" s="86"/>
-      <c r="C38" s="39"/>
-      <c r="D38" s="42"/>
+      <c r="B38" s="70"/>
+      <c r="C38" s="91"/>
+      <c r="D38" s="73"/>
       <c r="E38" s="7" t="s">
         <v>27</v>
       </c>
       <c r="F38" s="20"/>
-      <c r="G38" s="73"/>
+      <c r="G38" s="76"/>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B39" s="86"/>
-      <c r="C39" s="39"/>
-      <c r="D39" s="42"/>
+      <c r="B39" s="70"/>
+      <c r="C39" s="91"/>
+      <c r="D39" s="73"/>
       <c r="E39" s="7" t="s">
         <v>28</v>
       </c>
       <c r="F39" s="19"/>
-      <c r="G39" s="73"/>
+      <c r="G39" s="76"/>
     </row>
     <row r="40" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B40" s="86"/>
-      <c r="C40" s="39"/>
-      <c r="D40" s="42"/>
+      <c r="B40" s="70"/>
+      <c r="C40" s="91"/>
+      <c r="D40" s="73"/>
       <c r="E40" s="7" t="s">
         <v>29</v>
       </c>
       <c r="F40" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="G40" s="73"/>
+      <c r="G40" s="76"/>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B41" s="86"/>
-      <c r="C41" s="39"/>
-      <c r="D41" s="42"/>
+      <c r="B41" s="70"/>
+      <c r="C41" s="91"/>
+      <c r="D41" s="73"/>
       <c r="E41" s="20" t="s">
         <v>30</v>
       </c>
       <c r="F41" s="19"/>
-      <c r="G41" s="73"/>
+      <c r="G41" s="76"/>
     </row>
     <row r="42" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B42" s="86"/>
-      <c r="C42" s="39"/>
-      <c r="D42" s="42"/>
+      <c r="B42" s="70"/>
+      <c r="C42" s="91"/>
+      <c r="D42" s="73"/>
       <c r="E42" s="7" t="s">
         <v>31</v>
       </c>
       <c r="F42" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="G42" s="73"/>
+      <c r="G42" s="76"/>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B43" s="86"/>
-      <c r="C43" s="39"/>
-      <c r="D43" s="42"/>
+      <c r="B43" s="70"/>
+      <c r="C43" s="91"/>
+      <c r="D43" s="73"/>
       <c r="E43" s="20" t="s">
         <v>32</v>
       </c>
       <c r="F43" s="19"/>
-      <c r="G43" s="73"/>
+      <c r="G43" s="76"/>
     </row>
     <row r="44" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B44" s="86"/>
-      <c r="C44" s="39"/>
-      <c r="D44" s="42"/>
+      <c r="B44" s="70"/>
+      <c r="C44" s="91"/>
+      <c r="D44" s="73"/>
       <c r="E44" s="7" t="s">
         <v>33</v>
       </c>
       <c r="F44" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="G44" s="73"/>
+      <c r="G44" s="76"/>
     </row>
     <row r="45" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="87"/>
-      <c r="C45" s="40"/>
-      <c r="D45" s="43"/>
+      <c r="B45" s="71"/>
+      <c r="C45" s="92"/>
+      <c r="D45" s="74"/>
       <c r="E45" s="9" t="s">
         <v>61</v>
       </c>
       <c r="F45" s="24"/>
-      <c r="G45" s="74"/>
+      <c r="G45" s="77"/>
     </row>
     <row r="46" spans="2:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="88">
+      <c r="B46" s="39">
         <v>8</v>
       </c>
       <c r="C46" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D46" s="31" t="s">
-        <v>66</v>
+        <v>105</v>
       </c>
       <c r="E46" s="32" t="s">
-        <v>63</v>
+        <v>106</v>
       </c>
       <c r="F46" s="33" t="s">
-        <v>64</v>
-      </c>
-      <c r="G46" s="75" t="s">
+        <v>107</v>
+      </c>
+      <c r="G46" s="38" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2086,274 +2086,281 @@
         <v>0</v>
       </c>
       <c r="C48" s="35" t="s">
+        <v>67</v>
+      </c>
+      <c r="D48" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="E48" s="37" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B49" s="40">
+        <v>1</v>
+      </c>
+      <c r="C49" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="D49" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="E49" s="42" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="B50" s="40">
+        <v>2</v>
+      </c>
+      <c r="C50" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="D48" s="36" t="s">
+      <c r="D50" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="E50" s="42" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B51" s="40">
+        <v>3</v>
+      </c>
+      <c r="C51" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="E48" s="37" t="s">
+      <c r="D51" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="E51" s="42" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B52" s="40">
+        <v>4</v>
+      </c>
+      <c r="C52" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="D52" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="E52" s="42" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B53" s="40">
+        <v>5</v>
+      </c>
+      <c r="C53" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="D53" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="E53" s="42" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B54" s="40">
+        <v>6</v>
+      </c>
+      <c r="C54" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="D54" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="E54" s="42" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="55" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="B55" s="40">
+        <v>7</v>
+      </c>
+      <c r="C55" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="D55" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="E55" s="42" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="56" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B56" s="40">
+        <v>8</v>
+      </c>
+      <c r="C56" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="D56" s="27" t="s">
+        <v>97</v>
+      </c>
+      <c r="E56" s="42" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="57" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B57" s="40">
+        <v>9</v>
+      </c>
+      <c r="C57" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="D57" s="27" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B49" s="89">
-        <v>1</v>
-      </c>
-      <c r="C49" s="27" t="s">
-        <v>72</v>
-      </c>
-      <c r="D49" s="27" t="s">
+      <c r="E57" s="42" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="58" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="B58" s="40">
+        <v>10</v>
+      </c>
+      <c r="C58" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="D58" s="27" t="s">
+        <v>99</v>
+      </c>
+      <c r="E58" s="42" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="59" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B59" s="40">
+        <v>11</v>
+      </c>
+      <c r="C59" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="D59" s="27" t="s">
+        <v>100</v>
+      </c>
+      <c r="E59" s="42" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="60" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="B60" s="40">
+        <v>12</v>
+      </c>
+      <c r="C60" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="D60" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="E60" s="42" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="61" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B61" s="40">
+        <v>13</v>
+      </c>
+      <c r="C61" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="D61" s="27" t="s">
+        <v>102</v>
+      </c>
+      <c r="E61" s="42" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="62" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="B62" s="40">
+        <v>14</v>
+      </c>
+      <c r="C62" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="D62" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="E62" s="42" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="63" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B63" s="40">
+        <v>15</v>
+      </c>
+      <c r="C63" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="D63" s="27" t="s">
         <v>90</v>
       </c>
-      <c r="E49" s="91" t="s">
+      <c r="E63" s="42" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="64" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B64" s="40">
+        <v>16</v>
+      </c>
+      <c r="C64" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="D64" s="27" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="50" spans="2:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="B50" s="89">
-        <v>2</v>
-      </c>
-      <c r="C50" s="27" t="s">
-        <v>73</v>
-      </c>
-      <c r="D50" s="27" t="s">
+      <c r="E64" s="42" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="65" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B65" s="40">
+        <v>17</v>
+      </c>
+      <c r="C65" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="D65" s="27" t="s">
         <v>92</v>
       </c>
-      <c r="E50" s="91" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="51" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B51" s="89">
-        <v>3</v>
-      </c>
-      <c r="C51" s="27" t="s">
-        <v>74</v>
-      </c>
-      <c r="D51" s="27" t="s">
+      <c r="E65" s="42" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="66" spans="2:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B66" s="41">
+        <v>18</v>
+      </c>
+      <c r="C66" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="D66" s="29" t="s">
         <v>93</v>
       </c>
-      <c r="E51" s="91" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="52" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B52" s="89">
-        <v>4</v>
-      </c>
-      <c r="C52" s="27" t="s">
-        <v>75</v>
-      </c>
-      <c r="D52" s="27" t="s">
-        <v>94</v>
-      </c>
-      <c r="E52" s="91" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="53" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B53" s="89">
-        <v>5</v>
-      </c>
-      <c r="C53" s="27" t="s">
-        <v>76</v>
-      </c>
-      <c r="D53" s="27" t="s">
-        <v>95</v>
-      </c>
-      <c r="E53" s="91" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="54" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B54" s="89">
-        <v>6</v>
-      </c>
-      <c r="C54" s="27" t="s">
-        <v>77</v>
-      </c>
-      <c r="D54" s="27" t="s">
-        <v>96</v>
-      </c>
-      <c r="E54" s="91" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="55" spans="2:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="B55" s="89">
-        <v>7</v>
-      </c>
-      <c r="C55" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="D55" s="27" t="s">
-        <v>99</v>
-      </c>
-      <c r="E55" s="91" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="56" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B56" s="89">
-        <v>8</v>
-      </c>
-      <c r="C56" s="27" t="s">
-        <v>79</v>
-      </c>
-      <c r="D56" s="27" t="s">
-        <v>100</v>
-      </c>
-      <c r="E56" s="91" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="57" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B57" s="89">
-        <v>9</v>
-      </c>
-      <c r="C57" s="27" t="s">
-        <v>80</v>
-      </c>
-      <c r="D57" s="27" t="s">
-        <v>101</v>
-      </c>
-      <c r="E57" s="91" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="58" spans="2:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="B58" s="89">
-        <v>10</v>
-      </c>
-      <c r="C58" s="27" t="s">
-        <v>81</v>
-      </c>
-      <c r="D58" s="27" t="s">
-        <v>102</v>
-      </c>
-      <c r="E58" s="91" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="59" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B59" s="89">
-        <v>11</v>
-      </c>
-      <c r="C59" s="27" t="s">
-        <v>82</v>
-      </c>
-      <c r="D59" s="27" t="s">
+      <c r="E66" s="43" t="s">
         <v>103</v>
-      </c>
-      <c r="E59" s="91" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="60" spans="2:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="B60" s="89">
-        <v>12</v>
-      </c>
-      <c r="C60" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="D60" s="27" t="s">
-        <v>104</v>
-      </c>
-      <c r="E60" s="91" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="61" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B61" s="89">
-        <v>13</v>
-      </c>
-      <c r="C61" s="27" t="s">
-        <v>84</v>
-      </c>
-      <c r="D61" s="27" t="s">
-        <v>105</v>
-      </c>
-      <c r="E61" s="91" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="62" spans="2:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="B62" s="89">
-        <v>14</v>
-      </c>
-      <c r="C62" s="27" t="s">
-        <v>85</v>
-      </c>
-      <c r="D62" s="27" t="s">
-        <v>92</v>
-      </c>
-      <c r="E62" s="91" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="63" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B63" s="89">
-        <v>15</v>
-      </c>
-      <c r="C63" s="27" t="s">
-        <v>86</v>
-      </c>
-      <c r="D63" s="27" t="s">
-        <v>93</v>
-      </c>
-      <c r="E63" s="91" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="64" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B64" s="89">
-        <v>16</v>
-      </c>
-      <c r="C64" s="27" t="s">
-        <v>87</v>
-      </c>
-      <c r="D64" s="27" t="s">
-        <v>94</v>
-      </c>
-      <c r="E64" s="91" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="65" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B65" s="89">
-        <v>17</v>
-      </c>
-      <c r="C65" s="27" t="s">
-        <v>88</v>
-      </c>
-      <c r="D65" s="27" t="s">
-        <v>95</v>
-      </c>
-      <c r="E65" s="91" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="66" spans="2:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B66" s="90">
-        <v>18</v>
-      </c>
-      <c r="C66" s="29" t="s">
-        <v>89</v>
-      </c>
-      <c r="D66" s="29" t="s">
-        <v>96</v>
-      </c>
-      <c r="E66" s="92" t="s">
-        <v>106</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="B3:B8"/>
-    <mergeCell ref="C3:C8"/>
-    <mergeCell ref="D3:D8"/>
-    <mergeCell ref="G3:G8"/>
+    <mergeCell ref="B35:B45"/>
+    <mergeCell ref="C35:C45"/>
+    <mergeCell ref="D35:D45"/>
+    <mergeCell ref="G35:G45"/>
+    <mergeCell ref="B27:B30"/>
+    <mergeCell ref="C27:C30"/>
+    <mergeCell ref="D27:D30"/>
+    <mergeCell ref="G27:G30"/>
+    <mergeCell ref="B31:B34"/>
+    <mergeCell ref="C31:C34"/>
+    <mergeCell ref="D31:D34"/>
+    <mergeCell ref="G31:G34"/>
     <mergeCell ref="G9:G12"/>
     <mergeCell ref="D9:D12"/>
     <mergeCell ref="C9:C12"/>
@@ -2366,18 +2373,11 @@
     <mergeCell ref="C13:C22"/>
     <mergeCell ref="D13:D22"/>
     <mergeCell ref="G13:G22"/>
-    <mergeCell ref="B35:B45"/>
-    <mergeCell ref="C35:C45"/>
-    <mergeCell ref="D35:D45"/>
-    <mergeCell ref="G35:G45"/>
-    <mergeCell ref="B27:B30"/>
-    <mergeCell ref="C27:C30"/>
-    <mergeCell ref="D27:D30"/>
-    <mergeCell ref="G27:G30"/>
-    <mergeCell ref="B31:B34"/>
-    <mergeCell ref="C31:C34"/>
-    <mergeCell ref="D31:D34"/>
-    <mergeCell ref="G31:G34"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="B3:B8"/>
+    <mergeCell ref="C3:C8"/>
+    <mergeCell ref="D3:D8"/>
+    <mergeCell ref="G3:G8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Тест-кейси Петренко О.xlsx
+++ b/Тест-кейси Петренко О.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="106">
   <si>
     <t>№</t>
   </si>
@@ -76,21 +76,9 @@
     <t>4. Далі отримати текстовий єлемент з сайту, після авторизації.</t>
   </si>
   <si>
-    <t>Буде виконана авторизація на сайті. Відкриється сайт заявок, та історія користувача.</t>
-  </si>
-  <si>
     <t>Виконано авторизацію на сайті автоматизованої біржі</t>
   </si>
   <si>
-    <t>Посередині з'явиться спливаюче вікно з параметрами заявки</t>
-  </si>
-  <si>
-    <t>З'явиться спливаюче меню з декількома варінтами статусу заявки</t>
-  </si>
-  <si>
-    <t>З'явиться спливаюче меню з декількома варінтами типу заявки</t>
-  </si>
-  <si>
     <t>Створення Товару</t>
   </si>
   <si>
@@ -187,9 +175,6 @@
     <t>Буде виконано видалення елементу і сторінка автоматично зробить reload.</t>
   </si>
   <si>
-    <t>Буде відредаговано заявку. Відредагована заявка з'явиться в розділі "All Orders List"</t>
-  </si>
-  <si>
     <t>Виконано авторизацію на сайті автоматизованої біржі. Створено не менш, ніж один товар.</t>
   </si>
   <si>
@@ -338,26 +323,27 @@
   </si>
   <si>
     <t>В результаті отримаемо список з всіма товарами.</t>
+  </si>
+  <si>
+    <t>Буде виконана авторизація на сайті. Відкриється сайт товарів, та історія користувача.</t>
+  </si>
+  <si>
+    <t>З'явиться спливаюче меню з декількома варінтами типу товару</t>
+  </si>
+  <si>
+    <t>Буде відредаговано заявку. Відредагований товар з'явиться в розділі "All Orders List"</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -920,21 +906,21 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -955,23 +941,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -981,9 +955,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1018,46 +989,157 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1069,131 +1151,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1503,8 +1489,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:G66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="H41" sqref="H41"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="G35" sqref="G35:G45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1518,11 +1504,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D1" s="44" t="s">
-        <v>64</v>
-      </c>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
+      <c r="D1" s="76" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
     </row>
     <row r="2" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
@@ -1545,68 +1531,68 @@
       </c>
     </row>
     <row r="3" spans="2:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="45">
+      <c r="B3" s="77">
         <v>1</v>
       </c>
-      <c r="C3" s="48" t="s">
+      <c r="C3" s="80" t="s">
         <v>8</v>
       </c>
       <c r="D3" s="51" t="s">
         <v>6</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="54" t="s">
+      <c r="G3" s="83" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="4" spans="2:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="46"/>
-      <c r="C4" s="49"/>
+      <c r="B4" s="78"/>
+      <c r="C4" s="81"/>
       <c r="D4" s="52"/>
       <c r="E4" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F4" s="8"/>
-      <c r="G4" s="55"/>
+      <c r="G4" s="84"/>
     </row>
     <row r="5" spans="2:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="46"/>
-      <c r="C5" s="49"/>
+      <c r="B5" s="78"/>
+      <c r="C5" s="81"/>
       <c r="D5" s="52"/>
       <c r="E5" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F5" s="8"/>
-      <c r="G5" s="55"/>
+      <c r="G5" s="84"/>
     </row>
     <row r="6" spans="2:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="46"/>
-      <c r="C6" s="49"/>
+      <c r="B6" s="78"/>
+      <c r="C6" s="81"/>
       <c r="D6" s="52"/>
       <c r="E6" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F6" s="8"/>
-      <c r="G6" s="55"/>
+      <c r="G6" s="84"/>
     </row>
     <row r="7" spans="2:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="46"/>
-      <c r="C7" s="49"/>
+      <c r="B7" s="78"/>
+      <c r="C7" s="81"/>
       <c r="D7" s="52"/>
       <c r="E7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="F7" s="8"/>
-      <c r="G7" s="55"/>
+      <c r="G7" s="84"/>
     </row>
     <row r="8" spans="2:7" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="47"/>
-      <c r="C8" s="50"/>
+      <c r="B8" s="79"/>
+      <c r="C8" s="82"/>
       <c r="D8" s="53"/>
       <c r="E8" s="9" t="s">
         <v>13</v>
@@ -1614,741 +1600,758 @@
       <c r="F8" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="56"/>
+      <c r="G8" s="85"/>
     </row>
     <row r="9" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B9" s="66">
+      <c r="B9" s="61">
         <v>2</v>
       </c>
-      <c r="C9" s="63" t="s">
-        <v>65</v>
-      </c>
-      <c r="D9" s="60" t="s">
+      <c r="C9" s="86" t="s">
+        <v>60</v>
+      </c>
+      <c r="D9" s="87" t="s">
+        <v>99</v>
+      </c>
+      <c r="E9" s="88" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="11"/>
+      <c r="G9" s="54" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B10" s="62"/>
+      <c r="C10" s="59"/>
+      <c r="D10" s="57"/>
+      <c r="E10" s="89" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="12"/>
+      <c r="G10" s="55"/>
+    </row>
+    <row r="11" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B11" s="62"/>
+      <c r="C11" s="59"/>
+      <c r="D11" s="57"/>
+      <c r="E11" s="89" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="12"/>
+      <c r="G11" s="55"/>
+    </row>
+    <row r="12" spans="2:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="63"/>
+      <c r="C12" s="60"/>
+      <c r="D12" s="58"/>
+      <c r="E12" s="90" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="91" t="s">
+        <v>103</v>
+      </c>
+      <c r="G12" s="56"/>
+    </row>
+    <row r="13" spans="2:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="64">
+        <v>3</v>
+      </c>
+      <c r="C13" s="67" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="70" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="G13" s="73" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B14" s="65"/>
+      <c r="C14" s="68"/>
+      <c r="D14" s="71"/>
+      <c r="E14" s="92" t="s">
+        <v>31</v>
+      </c>
+      <c r="F14" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="G14" s="74"/>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B15" s="65"/>
+      <c r="C15" s="68"/>
+      <c r="D15" s="71"/>
+      <c r="E15" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F15" s="16"/>
+      <c r="G15" s="74"/>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B16" s="65"/>
+      <c r="C16" s="68"/>
+      <c r="D16" s="71"/>
+      <c r="E16" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F16" s="16"/>
+      <c r="G16" s="74"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B17" s="65"/>
+      <c r="C17" s="68"/>
+      <c r="D17" s="71"/>
+      <c r="E17" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G17" s="74"/>
+    </row>
+    <row r="18" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B18" s="65"/>
+      <c r="C18" s="68"/>
+      <c r="D18" s="71"/>
+      <c r="E18" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F18" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="G18" s="74"/>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B19" s="65"/>
+      <c r="C19" s="68"/>
+      <c r="D19" s="71"/>
+      <c r="E19" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="G19" s="74"/>
+    </row>
+    <row r="20" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B20" s="65"/>
+      <c r="C20" s="68"/>
+      <c r="D20" s="71"/>
+      <c r="E20" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F20" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="E9" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" s="13"/>
-      <c r="G9" s="57" t="s">
+      <c r="G20" s="74"/>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B21" s="65"/>
+      <c r="C21" s="68"/>
+      <c r="D21" s="71"/>
+      <c r="E21" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="G21" s="74"/>
+    </row>
+    <row r="22" spans="2:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="66"/>
+      <c r="C22" s="69"/>
+      <c r="D22" s="72"/>
+      <c r="E22" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F22" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="G22" s="75"/>
+    </row>
+    <row r="23" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B23" s="39">
+        <v>4</v>
+      </c>
+      <c r="C23" s="51" t="s">
+        <v>20</v>
+      </c>
+      <c r="D23" s="45" t="s">
+        <v>35</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="F23" s="14"/>
+      <c r="G23" s="48" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B10" s="67"/>
-      <c r="C10" s="64"/>
-      <c r="D10" s="61"/>
-      <c r="E10" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="F10" s="14"/>
-      <c r="G10" s="58"/>
-    </row>
-    <row r="11" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B11" s="67"/>
-      <c r="C11" s="64"/>
-      <c r="D11" s="61"/>
-      <c r="E11" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F11" s="14"/>
-      <c r="G11" s="58"/>
-    </row>
-    <row r="12" spans="2:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="68"/>
-      <c r="C12" s="65"/>
-      <c r="D12" s="62"/>
-      <c r="E12" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" s="15" t="s">
+    <row r="24" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B24" s="40"/>
+      <c r="C24" s="52"/>
+      <c r="D24" s="46"/>
+      <c r="E24" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F24" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="G24" s="49"/>
+    </row>
+    <row r="25" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B25" s="40"/>
+      <c r="C25" s="52"/>
+      <c r="D25" s="46"/>
+      <c r="E25" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F25" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="G25" s="49"/>
+    </row>
+    <row r="26" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="41"/>
+      <c r="C26" s="53"/>
+      <c r="D26" s="47"/>
+      <c r="E26" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="F26" s="19"/>
+      <c r="G26" s="50"/>
+    </row>
+    <row r="27" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B27" s="39">
+        <v>5</v>
+      </c>
+      <c r="C27" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="G12" s="59"/>
-    </row>
-    <row r="13" spans="2:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="78">
-        <v>3</v>
-      </c>
-      <c r="C13" s="81" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" s="84" t="s">
+      <c r="D27" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="E27" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="F27" s="14"/>
+      <c r="G27" s="48" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B28" s="40"/>
+      <c r="C28" s="52"/>
+      <c r="D28" s="46"/>
+      <c r="E28" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F28" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="G28" s="49"/>
+    </row>
+    <row r="29" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B29" s="40"/>
+      <c r="C29" s="52"/>
+      <c r="D29" s="46"/>
+      <c r="E29" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F29" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="G29" s="49"/>
+    </row>
+    <row r="30" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="41"/>
+      <c r="C30" s="53"/>
+      <c r="D30" s="47"/>
+      <c r="E30" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="F30" s="19"/>
+      <c r="G30" s="50"/>
+    </row>
+    <row r="31" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B31" s="39">
+        <v>6</v>
+      </c>
+      <c r="C31" s="51" t="s">
+        <v>20</v>
+      </c>
+      <c r="D31" s="45" t="s">
+        <v>61</v>
+      </c>
+      <c r="E31" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="F31" s="14"/>
+      <c r="G31" s="48" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B32" s="40"/>
+      <c r="C32" s="52"/>
+      <c r="D32" s="46"/>
+      <c r="E32" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F32" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="G32" s="49"/>
+    </row>
+    <row r="33" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B33" s="40"/>
+      <c r="C33" s="52"/>
+      <c r="D33" s="46"/>
+      <c r="E33" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F33" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="G33" s="49"/>
+    </row>
+    <row r="34" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="41"/>
+      <c r="C34" s="53"/>
+      <c r="D34" s="47"/>
+      <c r="E34" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="F34" s="19"/>
+      <c r="G34" s="50"/>
+    </row>
+    <row r="35" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="39">
+        <v>7</v>
+      </c>
+      <c r="C35" s="42" t="s">
+        <v>53</v>
+      </c>
+      <c r="D35" s="45" t="s">
+        <v>54</v>
+      </c>
+      <c r="E35" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="F35" s="14"/>
+      <c r="G35" s="48" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B36" s="40"/>
+      <c r="C36" s="43"/>
+      <c r="D36" s="46"/>
+      <c r="E36" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="F36" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="G36" s="49"/>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B37" s="40"/>
+      <c r="C37" s="43"/>
+      <c r="D37" s="46"/>
+      <c r="E37" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F37" s="16"/>
+      <c r="G37" s="49"/>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B38" s="40"/>
+      <c r="C38" s="43"/>
+      <c r="D38" s="46"/>
+      <c r="E38" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F38" s="16"/>
+      <c r="G38" s="49"/>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B39" s="40"/>
+      <c r="C39" s="43"/>
+      <c r="D39" s="46"/>
+      <c r="E39" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F39" s="15"/>
+      <c r="G39" s="49"/>
+    </row>
+    <row r="40" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B40" s="40"/>
+      <c r="C40" s="43"/>
+      <c r="D40" s="46"/>
+      <c r="E40" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E13" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="G13" s="87" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B14" s="79"/>
-      <c r="C14" s="82"/>
-      <c r="D14" s="85"/>
-      <c r="E14" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="F14" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="G14" s="88"/>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B15" s="79"/>
-      <c r="C15" s="82"/>
-      <c r="D15" s="85"/>
-      <c r="E15" s="7" t="s">
+      <c r="F40" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="G40" s="49"/>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B41" s="40"/>
+      <c r="C41" s="43"/>
+      <c r="D41" s="46"/>
+      <c r="E41" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="F15" s="20"/>
-      <c r="G15" s="88"/>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B16" s="79"/>
-      <c r="C16" s="82"/>
-      <c r="D16" s="85"/>
-      <c r="E16" s="7" t="s">
+      <c r="F41" s="15"/>
+      <c r="G41" s="49"/>
+    </row>
+    <row r="42" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B42" s="40"/>
+      <c r="C42" s="43"/>
+      <c r="D42" s="46"/>
+      <c r="E42" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F16" s="20"/>
-      <c r="G16" s="88"/>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B17" s="79"/>
-      <c r="C17" s="82"/>
-      <c r="D17" s="85"/>
-      <c r="E17" s="7" t="s">
+      <c r="F42" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="G42" s="49"/>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B43" s="40"/>
+      <c r="C43" s="43"/>
+      <c r="D43" s="46"/>
+      <c r="E43" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="G17" s="88"/>
-    </row>
-    <row r="18" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B18" s="79"/>
-      <c r="C18" s="82"/>
-      <c r="D18" s="85"/>
-      <c r="E18" s="7" t="s">
+      <c r="F43" s="15"/>
+      <c r="G43" s="49"/>
+    </row>
+    <row r="44" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B44" s="40"/>
+      <c r="C44" s="43"/>
+      <c r="D44" s="46"/>
+      <c r="E44" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="F18" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="G18" s="88"/>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B19" s="79"/>
-      <c r="C19" s="82"/>
-      <c r="D19" s="85"/>
-      <c r="E19" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="G19" s="88"/>
-    </row>
-    <row r="20" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B20" s="79"/>
-      <c r="C20" s="82"/>
-      <c r="D20" s="85"/>
-      <c r="E20" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F20" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="G20" s="88"/>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B21" s="79"/>
-      <c r="C21" s="82"/>
-      <c r="D21" s="85"/>
-      <c r="E21" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="G21" s="88"/>
-    </row>
-    <row r="22" spans="2:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="80"/>
-      <c r="C22" s="83"/>
-      <c r="D22" s="86"/>
-      <c r="E22" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="F22" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="G22" s="89"/>
-    </row>
-    <row r="23" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B23" s="69">
-        <v>4</v>
-      </c>
-      <c r="C23" s="51" t="s">
-        <v>21</v>
-      </c>
-      <c r="D23" s="72" t="s">
-        <v>39</v>
-      </c>
-      <c r="E23" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="F23" s="18"/>
-      <c r="G23" s="75" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B24" s="70"/>
-      <c r="C24" s="52"/>
-      <c r="D24" s="73"/>
-      <c r="E24" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="F24" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="G24" s="76"/>
-    </row>
-    <row r="25" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B25" s="70"/>
-      <c r="C25" s="52"/>
-      <c r="D25" s="73"/>
-      <c r="E25" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="F25" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="G25" s="76"/>
-    </row>
-    <row r="26" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="71"/>
-      <c r="C26" s="53"/>
-      <c r="D26" s="74"/>
-      <c r="E26" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="F26" s="24"/>
-      <c r="G26" s="77"/>
-    </row>
-    <row r="27" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B27" s="69">
-        <v>5</v>
-      </c>
-      <c r="C27" s="51" t="s">
-        <v>21</v>
-      </c>
-      <c r="D27" s="72" t="s">
-        <v>46</v>
-      </c>
-      <c r="E27" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="F27" s="18"/>
-      <c r="G27" s="75" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="28" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B28" s="70"/>
-      <c r="C28" s="52"/>
-      <c r="D28" s="73"/>
-      <c r="E28" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="F28" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="G28" s="76"/>
-    </row>
-    <row r="29" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B29" s="70"/>
-      <c r="C29" s="52"/>
-      <c r="D29" s="73"/>
-      <c r="E29" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="F29" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="G29" s="76"/>
-    </row>
-    <row r="30" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="71"/>
-      <c r="C30" s="53"/>
-      <c r="D30" s="74"/>
-      <c r="E30" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="F30" s="24"/>
-      <c r="G30" s="77"/>
-    </row>
-    <row r="31" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B31" s="69">
-        <v>6</v>
-      </c>
-      <c r="C31" s="51" t="s">
-        <v>21</v>
-      </c>
-      <c r="D31" s="72" t="s">
-        <v>66</v>
-      </c>
-      <c r="E31" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="F31" s="18"/>
-      <c r="G31" s="75" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="32" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B32" s="70"/>
-      <c r="C32" s="52"/>
-      <c r="D32" s="73"/>
-      <c r="E32" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="F32" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="G32" s="76"/>
-    </row>
-    <row r="33" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B33" s="70"/>
-      <c r="C33" s="52"/>
-      <c r="D33" s="73"/>
-      <c r="E33" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="F33" s="20" t="s">
+      <c r="F44" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="G44" s="49"/>
+    </row>
+    <row r="45" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="41"/>
+      <c r="C45" s="44"/>
+      <c r="D45" s="47"/>
+      <c r="E45" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="G33" s="76"/>
-    </row>
-    <row r="34" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="71"/>
-      <c r="C34" s="53"/>
-      <c r="D34" s="74"/>
-      <c r="E34" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="F34" s="24"/>
-      <c r="G34" s="77"/>
-    </row>
-    <row r="35" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="69">
-        <v>7</v>
-      </c>
-      <c r="C35" s="90" t="s">
-        <v>58</v>
-      </c>
-      <c r="D35" s="72" t="s">
-        <v>59</v>
-      </c>
-      <c r="E35" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="F35" s="18"/>
-      <c r="G35" s="75" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="36" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B36" s="70"/>
-      <c r="C36" s="91"/>
-      <c r="D36" s="73"/>
-      <c r="E36" s="28" t="s">
-        <v>63</v>
-      </c>
-      <c r="F36" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="G36" s="76"/>
-    </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B37" s="70"/>
-      <c r="C37" s="91"/>
-      <c r="D37" s="73"/>
-      <c r="E37" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F37" s="20"/>
-      <c r="G37" s="76"/>
-    </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B38" s="70"/>
-      <c r="C38" s="91"/>
-      <c r="D38" s="73"/>
-      <c r="E38" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F38" s="20"/>
-      <c r="G38" s="76"/>
-    </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B39" s="70"/>
-      <c r="C39" s="91"/>
-      <c r="D39" s="73"/>
-      <c r="E39" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F39" s="19"/>
-      <c r="G39" s="76"/>
-    </row>
-    <row r="40" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B40" s="70"/>
-      <c r="C40" s="91"/>
-      <c r="D40" s="73"/>
-      <c r="E40" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="F40" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="G40" s="76"/>
-    </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B41" s="70"/>
-      <c r="C41" s="91"/>
-      <c r="D41" s="73"/>
-      <c r="E41" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="F41" s="19"/>
-      <c r="G41" s="76"/>
-    </row>
-    <row r="42" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B42" s="70"/>
-      <c r="C42" s="91"/>
-      <c r="D42" s="73"/>
-      <c r="E42" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F42" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="G42" s="76"/>
-    </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B43" s="70"/>
-      <c r="C43" s="91"/>
-      <c r="D43" s="73"/>
-      <c r="E43" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="F43" s="19"/>
-      <c r="G43" s="76"/>
-    </row>
-    <row r="44" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B44" s="70"/>
-      <c r="C44" s="91"/>
-      <c r="D44" s="73"/>
-      <c r="E44" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F44" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="G44" s="76"/>
-    </row>
-    <row r="45" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="71"/>
-      <c r="C45" s="92"/>
-      <c r="D45" s="74"/>
-      <c r="E45" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="F45" s="24"/>
-      <c r="G45" s="77"/>
+      <c r="F45" s="19"/>
+      <c r="G45" s="50"/>
     </row>
     <row r="46" spans="2:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="39">
+      <c r="B46" s="34">
         <v>8</v>
       </c>
-      <c r="C46" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D46" s="31" t="s">
-        <v>105</v>
-      </c>
-      <c r="E46" s="32" t="s">
-        <v>106</v>
-      </c>
-      <c r="F46" s="33" t="s">
-        <v>107</v>
-      </c>
-      <c r="G46" s="38" t="s">
+      <c r="C46" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="D46" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="E46" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="F46" s="28" t="s">
+        <v>102</v>
+      </c>
+      <c r="G46" s="33" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="47" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="48" spans="2:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="34" t="s">
+      <c r="B48" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="C48" s="35" t="s">
+      <c r="C48" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="D48" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="E48" s="32" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B49" s="35">
+        <v>1</v>
+      </c>
+      <c r="C49" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="D49" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="E49" s="37" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="B50" s="35">
+        <v>2</v>
+      </c>
+      <c r="C50" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="D50" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="E50" s="37" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B51" s="35">
+        <v>3</v>
+      </c>
+      <c r="C51" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="D51" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="E51" s="37" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B52" s="35">
+        <v>4</v>
+      </c>
+      <c r="C52" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="D48" s="36" t="s">
+      <c r="D52" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="E52" s="37" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B53" s="35">
+        <v>5</v>
+      </c>
+      <c r="C53" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="E48" s="37" t="s">
+      <c r="D53" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="E53" s="37" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B54" s="35">
+        <v>6</v>
+      </c>
+      <c r="C54" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="D54" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="E54" s="37" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="55" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="B55" s="35">
+        <v>7</v>
+      </c>
+      <c r="C55" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="D55" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="E55" s="37" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="56" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B56" s="35">
+        <v>8</v>
+      </c>
+      <c r="C56" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="D56" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="E56" s="37" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="57" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B57" s="35">
+        <v>9</v>
+      </c>
+      <c r="C57" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="D57" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="E57" s="37" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="58" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="B58" s="35">
+        <v>10</v>
+      </c>
+      <c r="C58" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="D58" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="E58" s="37" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="59" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B59" s="35">
+        <v>11</v>
+      </c>
+      <c r="C59" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="D59" s="22" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B49" s="40">
-        <v>1</v>
-      </c>
-      <c r="C49" s="27" t="s">
-        <v>69</v>
-      </c>
-      <c r="D49" s="27" t="s">
+      <c r="E59" s="37" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="60" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="B60" s="35">
+        <v>12</v>
+      </c>
+      <c r="C60" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="D60" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="E60" s="37" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="61" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B61" s="35">
+        <v>13</v>
+      </c>
+      <c r="C61" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="D61" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="E61" s="37" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="62" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="B62" s="35">
+        <v>14</v>
+      </c>
+      <c r="C62" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="D62" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="E62" s="37" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="63" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B63" s="35">
+        <v>15</v>
+      </c>
+      <c r="C63" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="D63" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="E63" s="37" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="64" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B64" s="35">
+        <v>16</v>
+      </c>
+      <c r="C64" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="D64" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="E64" s="37" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="65" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B65" s="35">
+        <v>17</v>
+      </c>
+      <c r="C65" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="D65" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="E49" s="42" t="s">
+      <c r="E65" s="37" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="66" spans="2:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B66" s="36">
+        <v>18</v>
+      </c>
+      <c r="C66" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="D66" s="24" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="50" spans="2:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="B50" s="40">
-        <v>2</v>
-      </c>
-      <c r="C50" s="27" t="s">
-        <v>70</v>
-      </c>
-      <c r="D50" s="27" t="s">
-        <v>89</v>
-      </c>
-      <c r="E50" s="42" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="51" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B51" s="40">
-        <v>3</v>
-      </c>
-      <c r="C51" s="27" t="s">
-        <v>71</v>
-      </c>
-      <c r="D51" s="27" t="s">
-        <v>90</v>
-      </c>
-      <c r="E51" s="42" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="52" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B52" s="40">
-        <v>4</v>
-      </c>
-      <c r="C52" s="27" t="s">
-        <v>72</v>
-      </c>
-      <c r="D52" s="27" t="s">
-        <v>91</v>
-      </c>
-      <c r="E52" s="42" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="53" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B53" s="40">
-        <v>5</v>
-      </c>
-      <c r="C53" s="27" t="s">
-        <v>73</v>
-      </c>
-      <c r="D53" s="27" t="s">
-        <v>92</v>
-      </c>
-      <c r="E53" s="42" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="54" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B54" s="40">
-        <v>6</v>
-      </c>
-      <c r="C54" s="27" t="s">
-        <v>74</v>
-      </c>
-      <c r="D54" s="27" t="s">
-        <v>93</v>
-      </c>
-      <c r="E54" s="42" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="55" spans="2:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="B55" s="40">
-        <v>7</v>
-      </c>
-      <c r="C55" s="27" t="s">
-        <v>75</v>
-      </c>
-      <c r="D55" s="27" t="s">
-        <v>96</v>
-      </c>
-      <c r="E55" s="42" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="56" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B56" s="40">
-        <v>8</v>
-      </c>
-      <c r="C56" s="27" t="s">
-        <v>76</v>
-      </c>
-      <c r="D56" s="27" t="s">
-        <v>97</v>
-      </c>
-      <c r="E56" s="42" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="57" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B57" s="40">
-        <v>9</v>
-      </c>
-      <c r="C57" s="27" t="s">
-        <v>77</v>
-      </c>
-      <c r="D57" s="27" t="s">
+      <c r="E66" s="38" t="s">
         <v>98</v>
-      </c>
-      <c r="E57" s="42" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="58" spans="2:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="B58" s="40">
-        <v>10</v>
-      </c>
-      <c r="C58" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="D58" s="27" t="s">
-        <v>99</v>
-      </c>
-      <c r="E58" s="42" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="59" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B59" s="40">
-        <v>11</v>
-      </c>
-      <c r="C59" s="27" t="s">
-        <v>79</v>
-      </c>
-      <c r="D59" s="27" t="s">
-        <v>100</v>
-      </c>
-      <c r="E59" s="42" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="60" spans="2:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="B60" s="40">
-        <v>12</v>
-      </c>
-      <c r="C60" s="27" t="s">
-        <v>80</v>
-      </c>
-      <c r="D60" s="27" t="s">
-        <v>101</v>
-      </c>
-      <c r="E60" s="42" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="61" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B61" s="40">
-        <v>13</v>
-      </c>
-      <c r="C61" s="27" t="s">
-        <v>81</v>
-      </c>
-      <c r="D61" s="27" t="s">
-        <v>102</v>
-      </c>
-      <c r="E61" s="42" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="62" spans="2:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="B62" s="40">
-        <v>14</v>
-      </c>
-      <c r="C62" s="27" t="s">
-        <v>82</v>
-      </c>
-      <c r="D62" s="27" t="s">
-        <v>89</v>
-      </c>
-      <c r="E62" s="42" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="63" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B63" s="40">
-        <v>15</v>
-      </c>
-      <c r="C63" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="D63" s="27" t="s">
-        <v>90</v>
-      </c>
-      <c r="E63" s="42" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="64" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B64" s="40">
-        <v>16</v>
-      </c>
-      <c r="C64" s="27" t="s">
-        <v>84</v>
-      </c>
-      <c r="D64" s="27" t="s">
-        <v>91</v>
-      </c>
-      <c r="E64" s="42" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="65" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B65" s="40">
-        <v>17</v>
-      </c>
-      <c r="C65" s="27" t="s">
-        <v>85</v>
-      </c>
-      <c r="D65" s="27" t="s">
-        <v>92</v>
-      </c>
-      <c r="E65" s="42" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="66" spans="2:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B66" s="41">
-        <v>18</v>
-      </c>
-      <c r="C66" s="29" t="s">
-        <v>86</v>
-      </c>
-      <c r="D66" s="29" t="s">
-        <v>93</v>
-      </c>
-      <c r="E66" s="43" t="s">
-        <v>103</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="B3:B8"/>
+    <mergeCell ref="C3:C8"/>
+    <mergeCell ref="D3:D8"/>
+    <mergeCell ref="G3:G8"/>
+    <mergeCell ref="G9:G12"/>
+    <mergeCell ref="D9:D12"/>
+    <mergeCell ref="C9:C12"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="B23:B26"/>
+    <mergeCell ref="C23:C26"/>
+    <mergeCell ref="D23:D26"/>
+    <mergeCell ref="G23:G26"/>
+    <mergeCell ref="B13:B22"/>
+    <mergeCell ref="C13:C22"/>
+    <mergeCell ref="D13:D22"/>
+    <mergeCell ref="G13:G22"/>
     <mergeCell ref="B35:B45"/>
     <mergeCell ref="C35:C45"/>
     <mergeCell ref="D35:D45"/>
@@ -2361,23 +2364,6 @@
     <mergeCell ref="C31:C34"/>
     <mergeCell ref="D31:D34"/>
     <mergeCell ref="G31:G34"/>
-    <mergeCell ref="G9:G12"/>
-    <mergeCell ref="D9:D12"/>
-    <mergeCell ref="C9:C12"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="B23:B26"/>
-    <mergeCell ref="C23:C26"/>
-    <mergeCell ref="D23:D26"/>
-    <mergeCell ref="G23:G26"/>
-    <mergeCell ref="B13:B22"/>
-    <mergeCell ref="C13:C22"/>
-    <mergeCell ref="D13:D22"/>
-    <mergeCell ref="G13:G22"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="B3:B8"/>
-    <mergeCell ref="C3:C8"/>
-    <mergeCell ref="D3:D8"/>
-    <mergeCell ref="G3:G8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Тест-кейси Петренко О.xlsx
+++ b/Тест-кейси Петренко О.xlsx
@@ -1019,116 +1019,20 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1151,6 +1055,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1160,26 +1073,113 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1490,7 +1490,7 @@
   <dimension ref="B1:G66"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35:G45"/>
+      <selection activeCell="F66" sqref="F66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1504,11 +1504,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D1" s="76" t="s">
+      <c r="D1" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
     </row>
     <row r="2" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
@@ -1531,10 +1531,10 @@
       </c>
     </row>
     <row r="3" spans="2:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="77">
+      <c r="B3" s="45">
         <v>1</v>
       </c>
-      <c r="C3" s="80" t="s">
+      <c r="C3" s="48" t="s">
         <v>8</v>
       </c>
       <c r="D3" s="51" t="s">
@@ -1546,53 +1546,53 @@
       <c r="F3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="83" t="s">
+      <c r="G3" s="54" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="4" spans="2:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="78"/>
-      <c r="C4" s="81"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="49"/>
       <c r="D4" s="52"/>
       <c r="E4" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F4" s="8"/>
-      <c r="G4" s="84"/>
+      <c r="G4" s="55"/>
     </row>
     <row r="5" spans="2:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="78"/>
-      <c r="C5" s="81"/>
+      <c r="B5" s="46"/>
+      <c r="C5" s="49"/>
       <c r="D5" s="52"/>
       <c r="E5" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F5" s="8"/>
-      <c r="G5" s="84"/>
+      <c r="G5" s="55"/>
     </row>
     <row r="6" spans="2:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="78"/>
-      <c r="C6" s="81"/>
+      <c r="B6" s="46"/>
+      <c r="C6" s="49"/>
       <c r="D6" s="52"/>
       <c r="E6" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F6" s="8"/>
-      <c r="G6" s="84"/>
+      <c r="G6" s="55"/>
     </row>
     <row r="7" spans="2:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="78"/>
-      <c r="C7" s="81"/>
+      <c r="B7" s="46"/>
+      <c r="C7" s="49"/>
       <c r="D7" s="52"/>
       <c r="E7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="F7" s="8"/>
-      <c r="G7" s="84"/>
+      <c r="G7" s="55"/>
     </row>
     <row r="8" spans="2:7" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="79"/>
-      <c r="C8" s="82"/>
+      <c r="B8" s="47"/>
+      <c r="C8" s="50"/>
       <c r="D8" s="53"/>
       <c r="E8" s="9" t="s">
         <v>13</v>
@@ -1600,451 +1600,451 @@
       <c r="F8" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="85"/>
+      <c r="G8" s="56"/>
     </row>
     <row r="9" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B9" s="61">
+      <c r="B9" s="66">
         <v>2</v>
       </c>
-      <c r="C9" s="86" t="s">
+      <c r="C9" s="63" t="s">
         <v>60</v>
       </c>
-      <c r="D9" s="87" t="s">
+      <c r="D9" s="60" t="s">
         <v>99</v>
       </c>
-      <c r="E9" s="88" t="s">
+      <c r="E9" s="39" t="s">
         <v>17</v>
       </c>
       <c r="F9" s="11"/>
-      <c r="G9" s="54" t="s">
+      <c r="G9" s="57" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="10" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B10" s="62"/>
-      <c r="C10" s="59"/>
-      <c r="D10" s="57"/>
-      <c r="E10" s="89" t="s">
+      <c r="B10" s="67"/>
+      <c r="C10" s="64"/>
+      <c r="D10" s="61"/>
+      <c r="E10" s="40" t="s">
         <v>16</v>
       </c>
       <c r="F10" s="12"/>
-      <c r="G10" s="55"/>
+      <c r="G10" s="58"/>
     </row>
     <row r="11" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B11" s="62"/>
-      <c r="C11" s="59"/>
-      <c r="D11" s="57"/>
-      <c r="E11" s="89" t="s">
+      <c r="B11" s="67"/>
+      <c r="C11" s="64"/>
+      <c r="D11" s="61"/>
+      <c r="E11" s="40" t="s">
         <v>18</v>
       </c>
       <c r="F11" s="12"/>
-      <c r="G11" s="55"/>
+      <c r="G11" s="58"/>
     </row>
     <row r="12" spans="2:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="63"/>
-      <c r="C12" s="60"/>
-      <c r="D12" s="58"/>
-      <c r="E12" s="90" t="s">
+      <c r="B12" s="68"/>
+      <c r="C12" s="65"/>
+      <c r="D12" s="62"/>
+      <c r="E12" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="F12" s="91" t="s">
+      <c r="F12" s="42" t="s">
         <v>103</v>
       </c>
-      <c r="G12" s="56"/>
+      <c r="G12" s="59"/>
     </row>
     <row r="13" spans="2:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="64">
+      <c r="B13" s="78">
         <v>3</v>
       </c>
-      <c r="C13" s="67" t="s">
+      <c r="C13" s="81" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="70" t="s">
+      <c r="D13" s="84" t="s">
         <v>21</v>
       </c>
       <c r="E13" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="G13" s="73" t="s">
+      <c r="G13" s="87" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="14" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B14" s="65"/>
-      <c r="C14" s="68"/>
-      <c r="D14" s="71"/>
-      <c r="E14" s="92" t="s">
+      <c r="B14" s="79"/>
+      <c r="C14" s="82"/>
+      <c r="D14" s="85"/>
+      <c r="E14" s="43" t="s">
         <v>31</v>
       </c>
       <c r="F14" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="G14" s="74"/>
+      <c r="G14" s="88"/>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B15" s="65"/>
-      <c r="C15" s="68"/>
-      <c r="D15" s="71"/>
+      <c r="B15" s="79"/>
+      <c r="C15" s="82"/>
+      <c r="D15" s="85"/>
       <c r="E15" s="7" t="s">
         <v>22</v>
       </c>
       <c r="F15" s="16"/>
-      <c r="G15" s="74"/>
+      <c r="G15" s="88"/>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B16" s="65"/>
-      <c r="C16" s="68"/>
-      <c r="D16" s="71"/>
+      <c r="B16" s="79"/>
+      <c r="C16" s="82"/>
+      <c r="D16" s="85"/>
       <c r="E16" s="7" t="s">
         <v>23</v>
       </c>
       <c r="F16" s="16"/>
-      <c r="G16" s="74"/>
+      <c r="G16" s="88"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B17" s="65"/>
-      <c r="C17" s="68"/>
-      <c r="D17" s="71"/>
+      <c r="B17" s="79"/>
+      <c r="C17" s="82"/>
+      <c r="D17" s="85"/>
       <c r="E17" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="G17" s="74"/>
+      <c r="G17" s="88"/>
     </row>
     <row r="18" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B18" s="65"/>
-      <c r="C18" s="68"/>
-      <c r="D18" s="71"/>
+      <c r="B18" s="79"/>
+      <c r="C18" s="82"/>
+      <c r="D18" s="85"/>
       <c r="E18" s="7" t="s">
         <v>25</v>
       </c>
       <c r="F18" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="G18" s="74"/>
+      <c r="G18" s="88"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B19" s="65"/>
-      <c r="C19" s="68"/>
-      <c r="D19" s="71"/>
+      <c r="B19" s="79"/>
+      <c r="C19" s="82"/>
+      <c r="D19" s="85"/>
       <c r="E19" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="G19" s="74"/>
+      <c r="G19" s="88"/>
     </row>
     <row r="20" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B20" s="65"/>
-      <c r="C20" s="68"/>
-      <c r="D20" s="71"/>
+      <c r="B20" s="79"/>
+      <c r="C20" s="82"/>
+      <c r="D20" s="85"/>
       <c r="E20" s="7" t="s">
         <v>27</v>
       </c>
       <c r="F20" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="G20" s="74"/>
+      <c r="G20" s="88"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B21" s="65"/>
-      <c r="C21" s="68"/>
-      <c r="D21" s="71"/>
+      <c r="B21" s="79"/>
+      <c r="C21" s="82"/>
+      <c r="D21" s="85"/>
       <c r="E21" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="G21" s="74"/>
+      <c r="G21" s="88"/>
     </row>
     <row r="22" spans="2:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="66"/>
-      <c r="C22" s="69"/>
-      <c r="D22" s="72"/>
+      <c r="B22" s="80"/>
+      <c r="C22" s="83"/>
+      <c r="D22" s="86"/>
       <c r="E22" s="9" t="s">
         <v>29</v>
       </c>
       <c r="F22" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="G22" s="75"/>
+      <c r="G22" s="89"/>
     </row>
     <row r="23" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B23" s="39">
+      <c r="B23" s="69">
         <v>4</v>
       </c>
       <c r="C23" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="D23" s="45" t="s">
+      <c r="D23" s="72" t="s">
         <v>35</v>
       </c>
       <c r="E23" s="13" t="s">
         <v>39</v>
       </c>
       <c r="F23" s="14"/>
-      <c r="G23" s="48" t="s">
+      <c r="G23" s="75" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="24" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B24" s="40"/>
+      <c r="B24" s="70"/>
       <c r="C24" s="52"/>
-      <c r="D24" s="46"/>
+      <c r="D24" s="73"/>
       <c r="E24" s="7" t="s">
         <v>40</v>
       </c>
       <c r="F24" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="G24" s="49"/>
+      <c r="G24" s="76"/>
     </row>
     <row r="25" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B25" s="40"/>
+      <c r="B25" s="70"/>
       <c r="C25" s="52"/>
-      <c r="D25" s="46"/>
+      <c r="D25" s="73"/>
       <c r="E25" s="7" t="s">
         <v>38</v>
       </c>
       <c r="F25" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="G25" s="49"/>
+      <c r="G25" s="76"/>
     </row>
     <row r="26" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="41"/>
+      <c r="B26" s="71"/>
       <c r="C26" s="53"/>
-      <c r="D26" s="47"/>
+      <c r="D26" s="74"/>
       <c r="E26" s="9" t="s">
         <v>41</v>
       </c>
       <c r="F26" s="19"/>
-      <c r="G26" s="50"/>
+      <c r="G26" s="77"/>
     </row>
     <row r="27" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B27" s="39">
+      <c r="B27" s="69">
         <v>5</v>
       </c>
       <c r="C27" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="D27" s="45" t="s">
+      <c r="D27" s="72" t="s">
         <v>42</v>
       </c>
       <c r="E27" s="13" t="s">
         <v>39</v>
       </c>
       <c r="F27" s="14"/>
-      <c r="G27" s="48" t="s">
+      <c r="G27" s="75" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="28" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B28" s="40"/>
+      <c r="B28" s="70"/>
       <c r="C28" s="52"/>
-      <c r="D28" s="46"/>
+      <c r="D28" s="73"/>
       <c r="E28" s="7" t="s">
         <v>43</v>
       </c>
       <c r="F28" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="G28" s="49"/>
+      <c r="G28" s="76"/>
     </row>
     <row r="29" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B29" s="40"/>
+      <c r="B29" s="70"/>
       <c r="C29" s="52"/>
-      <c r="D29" s="46"/>
+      <c r="D29" s="73"/>
       <c r="E29" s="7" t="s">
         <v>45</v>
       </c>
       <c r="F29" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="G29" s="49"/>
+      <c r="G29" s="76"/>
     </row>
     <row r="30" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="41"/>
+      <c r="B30" s="71"/>
       <c r="C30" s="53"/>
-      <c r="D30" s="47"/>
+      <c r="D30" s="74"/>
       <c r="E30" s="9" t="s">
         <v>46</v>
       </c>
       <c r="F30" s="19"/>
-      <c r="G30" s="50"/>
+      <c r="G30" s="77"/>
     </row>
     <row r="31" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B31" s="39">
+      <c r="B31" s="69">
         <v>6</v>
       </c>
       <c r="C31" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="D31" s="45" t="s">
+      <c r="D31" s="72" t="s">
         <v>61</v>
       </c>
       <c r="E31" s="13" t="s">
         <v>39</v>
       </c>
       <c r="F31" s="14"/>
-      <c r="G31" s="48" t="s">
+      <c r="G31" s="75" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="32" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B32" s="40"/>
+      <c r="B32" s="70"/>
       <c r="C32" s="52"/>
-      <c r="D32" s="46"/>
+      <c r="D32" s="73"/>
       <c r="E32" s="7" t="s">
         <v>48</v>
       </c>
       <c r="F32" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="G32" s="49"/>
+      <c r="G32" s="76"/>
     </row>
     <row r="33" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B33" s="40"/>
+      <c r="B33" s="70"/>
       <c r="C33" s="52"/>
-      <c r="D33" s="46"/>
+      <c r="D33" s="73"/>
       <c r="E33" s="7" t="s">
         <v>49</v>
       </c>
       <c r="F33" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="G33" s="49"/>
+      <c r="G33" s="76"/>
     </row>
     <row r="34" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="41"/>
+      <c r="B34" s="71"/>
       <c r="C34" s="53"/>
-      <c r="D34" s="47"/>
+      <c r="D34" s="74"/>
       <c r="E34" s="9" t="s">
         <v>50</v>
       </c>
       <c r="F34" s="19"/>
-      <c r="G34" s="50"/>
+      <c r="G34" s="77"/>
     </row>
     <row r="35" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="39">
+      <c r="B35" s="69">
         <v>7</v>
       </c>
-      <c r="C35" s="42" t="s">
+      <c r="C35" s="90" t="s">
         <v>53</v>
       </c>
-      <c r="D35" s="45" t="s">
+      <c r="D35" s="72" t="s">
         <v>54</v>
       </c>
       <c r="E35" s="21" t="s">
         <v>55</v>
       </c>
       <c r="F35" s="14"/>
-      <c r="G35" s="48" t="s">
+      <c r="G35" s="75" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="36" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B36" s="40"/>
-      <c r="C36" s="43"/>
-      <c r="D36" s="46"/>
+      <c r="B36" s="70"/>
+      <c r="C36" s="91"/>
+      <c r="D36" s="73"/>
       <c r="E36" s="23" t="s">
         <v>58</v>
       </c>
       <c r="F36" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="G36" s="49"/>
+      <c r="G36" s="76"/>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B37" s="40"/>
-      <c r="C37" s="43"/>
-      <c r="D37" s="46"/>
+      <c r="B37" s="70"/>
+      <c r="C37" s="91"/>
+      <c r="D37" s="73"/>
       <c r="E37" s="7" t="s">
         <v>22</v>
       </c>
       <c r="F37" s="16"/>
-      <c r="G37" s="49"/>
+      <c r="G37" s="76"/>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B38" s="40"/>
-      <c r="C38" s="43"/>
-      <c r="D38" s="46"/>
+      <c r="B38" s="70"/>
+      <c r="C38" s="91"/>
+      <c r="D38" s="73"/>
       <c r="E38" s="7" t="s">
         <v>23</v>
       </c>
       <c r="F38" s="16"/>
-      <c r="G38" s="49"/>
+      <c r="G38" s="76"/>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B39" s="40"/>
-      <c r="C39" s="43"/>
-      <c r="D39" s="46"/>
+      <c r="B39" s="70"/>
+      <c r="C39" s="91"/>
+      <c r="D39" s="73"/>
       <c r="E39" s="7" t="s">
         <v>24</v>
       </c>
       <c r="F39" s="15"/>
-      <c r="G39" s="49"/>
+      <c r="G39" s="76"/>
     </row>
     <row r="40" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B40" s="40"/>
-      <c r="C40" s="43"/>
-      <c r="D40" s="46"/>
+      <c r="B40" s="70"/>
+      <c r="C40" s="91"/>
+      <c r="D40" s="73"/>
       <c r="E40" s="7" t="s">
         <v>25</v>
       </c>
       <c r="F40" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="G40" s="49"/>
+      <c r="G40" s="76"/>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B41" s="40"/>
-      <c r="C41" s="43"/>
-      <c r="D41" s="46"/>
+      <c r="B41" s="70"/>
+      <c r="C41" s="91"/>
+      <c r="D41" s="73"/>
       <c r="E41" s="16" t="s">
         <v>26</v>
       </c>
       <c r="F41" s="15"/>
-      <c r="G41" s="49"/>
+      <c r="G41" s="76"/>
     </row>
     <row r="42" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B42" s="40"/>
-      <c r="C42" s="43"/>
-      <c r="D42" s="46"/>
+      <c r="B42" s="70"/>
+      <c r="C42" s="91"/>
+      <c r="D42" s="73"/>
       <c r="E42" s="7" t="s">
         <v>27</v>
       </c>
       <c r="F42" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="G42" s="49"/>
+      <c r="G42" s="76"/>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B43" s="40"/>
-      <c r="C43" s="43"/>
-      <c r="D43" s="46"/>
+      <c r="B43" s="70"/>
+      <c r="C43" s="91"/>
+      <c r="D43" s="73"/>
       <c r="E43" s="16" t="s">
         <v>28</v>
       </c>
       <c r="F43" s="15"/>
-      <c r="G43" s="49"/>
+      <c r="G43" s="76"/>
     </row>
     <row r="44" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B44" s="40"/>
-      <c r="C44" s="43"/>
-      <c r="D44" s="46"/>
+      <c r="B44" s="70"/>
+      <c r="C44" s="91"/>
+      <c r="D44" s="73"/>
       <c r="E44" s="7" t="s">
         <v>29</v>
       </c>
       <c r="F44" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="G44" s="49"/>
+      <c r="G44" s="76"/>
     </row>
     <row r="45" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="41"/>
-      <c r="C45" s="44"/>
-      <c r="D45" s="47"/>
+      <c r="B45" s="71"/>
+      <c r="C45" s="92"/>
+      <c r="D45" s="74"/>
       <c r="E45" s="9" t="s">
         <v>56</v>
       </c>
       <c r="F45" s="19"/>
-      <c r="G45" s="50"/>
+      <c r="G45" s="77"/>
     </row>
     <row r="46" spans="2:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B46" s="34">
@@ -2335,11 +2335,18 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="B3:B8"/>
-    <mergeCell ref="C3:C8"/>
-    <mergeCell ref="D3:D8"/>
-    <mergeCell ref="G3:G8"/>
+    <mergeCell ref="B35:B45"/>
+    <mergeCell ref="C35:C45"/>
+    <mergeCell ref="D35:D45"/>
+    <mergeCell ref="G35:G45"/>
+    <mergeCell ref="B27:B30"/>
+    <mergeCell ref="C27:C30"/>
+    <mergeCell ref="D27:D30"/>
+    <mergeCell ref="G27:G30"/>
+    <mergeCell ref="B31:B34"/>
+    <mergeCell ref="C31:C34"/>
+    <mergeCell ref="D31:D34"/>
+    <mergeCell ref="G31:G34"/>
     <mergeCell ref="G9:G12"/>
     <mergeCell ref="D9:D12"/>
     <mergeCell ref="C9:C12"/>
@@ -2352,18 +2359,11 @@
     <mergeCell ref="C13:C22"/>
     <mergeCell ref="D13:D22"/>
     <mergeCell ref="G13:G22"/>
-    <mergeCell ref="B35:B45"/>
-    <mergeCell ref="C35:C45"/>
-    <mergeCell ref="D35:D45"/>
-    <mergeCell ref="G35:G45"/>
-    <mergeCell ref="B27:B30"/>
-    <mergeCell ref="C27:C30"/>
-    <mergeCell ref="D27:D30"/>
-    <mergeCell ref="G27:G30"/>
-    <mergeCell ref="B31:B34"/>
-    <mergeCell ref="C31:C34"/>
-    <mergeCell ref="D31:D34"/>
-    <mergeCell ref="G31:G34"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="B3:B8"/>
+    <mergeCell ref="C3:C8"/>
+    <mergeCell ref="D3:D8"/>
+    <mergeCell ref="G3:G8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
